--- a/frota.xlsx
+++ b/frota.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\Gerenciamento de frota de veículos v6.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781F6D4A-A503-41B2-9AD1-38B21673127C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975E7474-9DFA-4BFD-8F93-E5C35EA551DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A9E33E62-5F44-40B8-AD32-7E71F3A7A556}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,6 +492,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2256,8 +2259,8 @@
   <dimension ref="A1:L185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E145" sqref="E145"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,11 +2268,13 @@
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="12" max="12" width="10" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2282,22 +2287,22 @@
       <c r="C1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="12" t="s">
         <v>75</v>
       </c>
       <c r="J1" s="10" t="s">
@@ -2306,7 +2311,7 @@
       <c r="K1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="12" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2320,13 +2325,13 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="11">
         <v>515.33000000000004</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="11">
         <v>227.6</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="11">
         <v>580.73</v>
       </c>
       <c r="J2" t="s">
@@ -2346,10 +2351,10 @@
       <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <v>434.77</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="11">
         <v>167.95</v>
       </c>
       <c r="J3" t="s">
@@ -2369,10 +2374,10 @@
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <v>402.81</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="11">
         <v>212.9</v>
       </c>
       <c r="J4" t="s">
@@ -2392,13 +2397,13 @@
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="11">
         <v>567.12</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="11">
         <v>200.85</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="11">
         <v>307.3</v>
       </c>
       <c r="J5" t="s">
@@ -2418,13 +2423,13 @@
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="11">
         <v>507.94</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="11">
         <v>69.25</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="11">
         <v>1398.28</v>
       </c>
       <c r="J6" t="s">
@@ -2444,7 +2449,7 @@
       <c r="C7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="11">
         <v>233.51</v>
       </c>
       <c r="J7" t="s">
@@ -2464,7 +2469,7 @@
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="11">
         <v>83.12</v>
       </c>
       <c r="J8" t="s">
@@ -2484,10 +2489,10 @@
       <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="11">
         <v>223.65</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="11">
         <v>125.4</v>
       </c>
       <c r="J9" t="s">
@@ -2507,10 +2512,10 @@
       <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="11">
         <v>327.77</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="11">
         <v>221.5</v>
       </c>
       <c r="J10" t="s">
@@ -2530,10 +2535,10 @@
       <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="11">
         <v>293.06</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="11">
         <v>164.45</v>
       </c>
       <c r="J11" t="s">
@@ -2553,7 +2558,7 @@
       <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="11">
         <v>16.899999999999999</v>
       </c>
       <c r="J12" t="s">
@@ -2573,7 +2578,7 @@
       <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="11">
         <v>172.65</v>
       </c>
       <c r="J13" t="s">
@@ -2593,7 +2598,7 @@
       <c r="C14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="11">
         <v>49.2</v>
       </c>
       <c r="J14" t="s">
@@ -2613,7 +2618,7 @@
       <c r="C15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="11">
         <v>99.25</v>
       </c>
       <c r="J15" t="s">
@@ -2735,10 +2740,10 @@
       <c r="C22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="11">
         <v>170.87</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="11">
         <v>193.76</v>
       </c>
       <c r="J22" t="s">
@@ -2758,7 +2763,7 @@
       <c r="C23" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="11">
         <v>286.94</v>
       </c>
       <c r="J23" t="s">
@@ -2778,10 +2783,10 @@
       <c r="C24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="11">
         <v>1039.7</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="11">
         <v>104.15</v>
       </c>
       <c r="J24" t="s">
@@ -2805,13 +2810,13 @@
       <c r="C25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="11">
         <v>1121.32</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="11">
         <v>65.5</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="11">
         <v>401.25</v>
       </c>
       <c r="J25" t="s">
@@ -2835,13 +2840,13 @@
       <c r="C26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="11">
         <v>1304.7</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="11">
         <v>101.4</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="11">
         <v>127.32</v>
       </c>
       <c r="J26" t="s">
@@ -2865,13 +2870,13 @@
       <c r="C27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="11">
         <v>927.96</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="11">
         <v>77.650000000000006</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="11">
         <v>182.89</v>
       </c>
       <c r="J27" t="s">
@@ -2895,10 +2900,10 @@
       <c r="C28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="11">
         <v>709.86</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="11">
         <v>86.35</v>
       </c>
       <c r="J28" t="s">
@@ -2922,7 +2927,7 @@
       <c r="C29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="11">
         <v>752.02</v>
       </c>
       <c r="J29" t="s">
@@ -2932,8 +2937,7 @@
         <v>2025</v>
       </c>
       <c r="L29" s="11">
-        <f>IFERROR(VLOOKUP(C29,[1]LT!$L$2:$O$19,4,0),0)</f>
-        <v>1047.0731707317073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2946,10 +2950,10 @@
       <c r="C30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="11">
         <v>91.59</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="11">
         <v>176.95</v>
       </c>
       <c r="J30" t="s">
@@ -2973,10 +2977,10 @@
       <c r="C31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="11">
         <v>396.24</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="11">
         <v>125.2</v>
       </c>
       <c r="J31" t="s">
@@ -3000,13 +3004,13 @@
       <c r="C32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="11">
         <v>179.9</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="11">
         <v>78.099999999999994</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="11">
         <v>3.4</v>
       </c>
       <c r="J32" t="s">
@@ -3030,10 +3034,10 @@
       <c r="C33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="11">
         <v>194.06</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="11">
         <v>128.15</v>
       </c>
       <c r="J33" t="s">
@@ -3057,7 +3061,7 @@
       <c r="C34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="11">
         <v>5.95</v>
       </c>
       <c r="J34" t="s">
@@ -3081,13 +3085,13 @@
       <c r="C35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="11">
         <v>587</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="11">
         <v>63.05</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="11">
         <v>275.32</v>
       </c>
       <c r="J35" t="s">
@@ -3111,13 +3115,13 @@
       <c r="C36" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="11">
         <v>892.86</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="11">
         <v>68.599999999999994</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="11">
         <v>275.32</v>
       </c>
       <c r="J36" t="s">
@@ -3141,7 +3145,7 @@
       <c r="C37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="11">
         <v>52.2</v>
       </c>
       <c r="J37" t="s">
@@ -3291,7 +3295,7 @@
       <c r="C44" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="11">
         <v>16.100000000000001</v>
       </c>
       <c r="J44" t="s">
@@ -3336,13 +3340,13 @@
       <c r="C46" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="11">
         <v>457.01</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="11">
         <v>36.950000000000003</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="11">
         <v>89.57</v>
       </c>
       <c r="J46" t="s">
@@ -3366,13 +3370,13 @@
       <c r="C47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="11">
         <v>1199.0899999999999</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="11">
         <v>157.9</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="11">
         <v>285.98</v>
       </c>
       <c r="J47" t="s">
@@ -3396,13 +3400,13 @@
       <c r="C48" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="11">
         <v>452.58</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="11">
         <v>87.35</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="11">
         <v>158.66999999999999</v>
       </c>
       <c r="J48" t="s">
@@ -3426,16 +3430,16 @@
       <c r="C49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="11">
         <v>1148.9000000000001</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="11">
         <v>166.7</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="11">
         <v>324.62</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="11">
         <v>285.98</v>
       </c>
       <c r="J49" t="s">
@@ -3459,13 +3463,13 @@
       <c r="C50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="11">
         <v>728.07</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="11">
         <v>140.05000000000001</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="11">
         <v>137.35</v>
       </c>
       <c r="J50" t="s">
@@ -3489,7 +3493,7 @@
       <c r="C51" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="11">
         <v>717.88</v>
       </c>
       <c r="J51" t="s">
@@ -3512,7 +3516,7 @@
       <c r="C52" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="11">
         <v>180.31</v>
       </c>
       <c r="J52" t="s">
@@ -3536,10 +3540,10 @@
       <c r="C53" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="11">
         <v>387.92</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="11">
         <v>125.6</v>
       </c>
       <c r="J53" t="s">
@@ -3563,13 +3567,13 @@
       <c r="C54" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="11">
         <v>272.33999999999997</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="11">
         <v>162.19999999999999</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="11">
         <v>248.48</v>
       </c>
       <c r="J54" t="s">
@@ -3593,13 +3597,13 @@
       <c r="C55" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="11">
         <v>300.45999999999998</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="11">
         <v>154.94999999999999</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="11">
         <v>600.26</v>
       </c>
       <c r="J55" t="s">
@@ -3623,7 +3627,7 @@
       <c r="C56" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="11">
         <v>22.85</v>
       </c>
       <c r="J56" t="s">
@@ -3647,10 +3651,10 @@
       <c r="C57" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="11">
         <v>745.66</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="11">
         <v>163.9</v>
       </c>
       <c r="J57" t="s">
@@ -3674,10 +3678,10 @@
       <c r="C58" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="11">
         <v>622.95000000000005</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="11">
         <v>36.1</v>
       </c>
       <c r="J58" t="s">
@@ -3701,7 +3705,7 @@
       <c r="C59" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="11">
         <v>6.2</v>
       </c>
       <c r="J59" t="s">
@@ -3725,7 +3729,7 @@
       <c r="C60" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="11">
         <v>291.24</v>
       </c>
       <c r="J60" t="s">
@@ -3749,10 +3753,10 @@
       <c r="C61" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="11">
         <v>1624.94</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="11">
         <v>324.73</v>
       </c>
       <c r="J61" t="s">
@@ -3839,10 +3843,10 @@
       <c r="C65" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="11">
         <v>149.68</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="11">
         <v>394.02</v>
       </c>
       <c r="J65" t="s">
@@ -3886,7 +3890,7 @@
       <c r="C67" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="11">
         <v>95.58</v>
       </c>
       <c r="J67" t="s">
@@ -3910,10 +3914,10 @@
       <c r="C68" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="11">
         <v>479.82</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="11">
         <v>28.15</v>
       </c>
       <c r="J68" t="s">
@@ -3922,9 +3926,8 @@
       <c r="K68">
         <v>2025</v>
       </c>
-      <c r="L68" s="11" t="str">
-        <f>IFERROR(VLOOKUP(C68,[1]LT!$L$2:$U$19,10,0),0)</f>
-        <v>Erro</v>
+      <c r="L68" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3937,10 +3940,10 @@
       <c r="C69" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="11">
         <v>899.85</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="11">
         <v>146.85</v>
       </c>
       <c r="J69" t="s">
@@ -3964,7 +3967,7 @@
       <c r="C70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="11">
         <v>81.489999999999995</v>
       </c>
       <c r="J70" t="s">
@@ -3988,13 +3991,13 @@
       <c r="C71" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="11">
         <v>1245.78</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="11">
         <v>214.5</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="11">
         <v>149.11000000000001</v>
       </c>
       <c r="J71" t="s">
@@ -4018,19 +4021,19 @@
       <c r="C72" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="11">
         <v>738.98</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="11">
         <v>108.65</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="11">
         <v>623.35</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="11">
         <v>22</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="11">
         <v>146.88999999999999</v>
       </c>
       <c r="J72" t="s">
@@ -4054,7 +4057,7 @@
       <c r="C73" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="11">
         <v>779.75</v>
       </c>
       <c r="J73" t="s">
@@ -4077,7 +4080,7 @@
       <c r="C74" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="11">
         <v>162.97</v>
       </c>
       <c r="J74" t="s">
@@ -4101,13 +4104,13 @@
       <c r="C75" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="11">
         <v>304.86</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="11">
         <v>118.3</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="11">
         <v>285.85000000000002</v>
       </c>
       <c r="J75" t="s">
@@ -4131,16 +4134,16 @@
       <c r="C76" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="11">
         <v>322.91000000000003</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="11">
         <v>189.75</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="11">
         <v>3.4</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="11">
         <v>145.83000000000001</v>
       </c>
       <c r="J76" t="s">
@@ -4164,10 +4167,10 @@
       <c r="C77" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="11">
         <v>256.72000000000003</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="11">
         <v>173.15</v>
       </c>
       <c r="J77" t="s">
@@ -4191,7 +4194,7 @@
       <c r="C78" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="11">
         <v>28.4</v>
       </c>
       <c r="J78" t="s">
@@ -4215,13 +4218,13 @@
       <c r="C79" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="11">
         <v>1058.19</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="11">
         <v>217.45</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="11">
         <v>10.5</v>
       </c>
       <c r="J79" t="s">
@@ -4245,10 +4248,10 @@
       <c r="C80" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="11">
         <v>805</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="11">
         <v>119.65</v>
       </c>
       <c r="J80" t="s">
@@ -4272,7 +4275,7 @@
       <c r="C81" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="11">
         <v>2.5</v>
       </c>
       <c r="J81" t="s">
@@ -4338,7 +4341,7 @@
       <c r="C84" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="11">
         <v>1551.62</v>
       </c>
       <c r="J84" t="s">
@@ -4404,7 +4407,7 @@
       <c r="C87" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="11">
         <v>166.21</v>
       </c>
       <c r="J87" t="s">
@@ -4449,10 +4452,10 @@
       <c r="C89" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="11">
         <v>187.78</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="11">
         <v>151.80000000000001</v>
       </c>
       <c r="J89" t="s">
@@ -4476,7 +4479,7 @@
       <c r="C90" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="11">
         <v>353.67</v>
       </c>
       <c r="J90" t="s">
@@ -4500,13 +4503,13 @@
       <c r="C91" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="11">
         <v>1289.93</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="11">
         <v>164</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="11">
         <v>349.63</v>
       </c>
       <c r="J91" t="s">
@@ -4530,13 +4533,13 @@
       <c r="C92" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="11">
         <v>1300.75</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="11">
         <v>249.35</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="11">
         <v>815.53</v>
       </c>
       <c r="J92" t="s">
@@ -4560,10 +4563,10 @@
       <c r="C93" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="11">
         <v>58.53</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="11">
         <v>1971.91</v>
       </c>
       <c r="J93" t="s">
@@ -4587,10 +4590,10 @@
       <c r="C94" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="11">
         <v>1483.88</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="11">
         <v>235.7</v>
       </c>
       <c r="J94" t="s">
@@ -4614,16 +4617,16 @@
       <c r="C95" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="11">
         <v>707.63</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="11">
         <v>94.1</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="11">
         <v>945.41</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="11">
         <v>35.79</v>
       </c>
       <c r="J95" t="s">
@@ -4647,7 +4650,7 @@
       <c r="C96" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="11">
         <v>462.89</v>
       </c>
       <c r="J96" t="s">
@@ -4671,7 +4674,7 @@
       <c r="C97" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="11">
         <v>264.97000000000003</v>
       </c>
       <c r="J97" t="s">
@@ -4695,10 +4698,10 @@
       <c r="C98" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="11">
         <v>381.32</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="11">
         <v>118.6</v>
       </c>
       <c r="J98" t="s">
@@ -4722,10 +4725,10 @@
       <c r="C99" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="11">
         <v>266.10000000000002</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="11">
         <v>164.75</v>
       </c>
       <c r="J99" t="s">
@@ -4749,10 +4752,10 @@
       <c r="C100" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="11">
         <v>311.45</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="11">
         <v>203.9</v>
       </c>
       <c r="J100" t="s">
@@ -4776,7 +4779,7 @@
       <c r="C101" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="11">
         <v>27.2</v>
       </c>
       <c r="J101" t="s">
@@ -4800,13 +4803,13 @@
       <c r="C102" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="11">
         <v>1034.0899999999999</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="11">
         <v>222.58</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="11">
         <v>356.23</v>
       </c>
       <c r="J102" t="s">
@@ -4830,13 +4833,13 @@
       <c r="C103" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="11">
         <v>1252.76</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="11">
         <v>216.33</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="11">
         <v>619.19000000000005</v>
       </c>
       <c r="J103" t="s">
@@ -4860,7 +4863,7 @@
       <c r="C104" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="11">
         <v>45.2</v>
       </c>
       <c r="J104" t="s">
@@ -4884,7 +4887,7 @@
       <c r="C105" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="11">
         <v>293.74</v>
       </c>
       <c r="J105" t="s">
@@ -4908,7 +4911,7 @@
       <c r="C106" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="11">
         <v>891.99</v>
       </c>
       <c r="J106" t="s">
@@ -4932,10 +4935,10 @@
       <c r="C107" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="11">
         <v>1122.6400000000001</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="11">
         <v>324.83</v>
       </c>
       <c r="J107" t="s">
@@ -5043,10 +5046,10 @@
       <c r="C112" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="11">
         <v>362.24</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="11">
         <v>222.55</v>
       </c>
       <c r="J112" t="s">
@@ -5070,7 +5073,7 @@
       <c r="C113" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="11">
         <v>406.89</v>
       </c>
       <c r="J113" t="s">
@@ -5094,7 +5097,7 @@
       <c r="C114" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="11">
         <v>475.93</v>
       </c>
       <c r="J114" t="s">
@@ -5117,10 +5120,10 @@
       <c r="C115" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="11">
         <v>437.21</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="11">
         <v>72.05</v>
       </c>
       <c r="J115" t="s">
@@ -5144,10 +5147,10 @@
       <c r="C116" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="11">
         <v>927.38</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="11">
         <v>143</v>
       </c>
       <c r="J116" t="s">
@@ -5171,10 +5174,10 @@
       <c r="C117" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="11">
         <v>671.82</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="11">
         <v>99.45</v>
       </c>
       <c r="J117" t="s">
@@ -5198,13 +5201,13 @@
       <c r="C118" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="11">
         <v>723.51</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="11">
         <v>79.599999999999994</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="11">
         <v>403.14</v>
       </c>
       <c r="J118" t="s">
@@ -5228,7 +5231,7 @@
       <c r="C119" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="11">
         <v>632.84</v>
       </c>
       <c r="J119" t="s">
@@ -5252,10 +5255,10 @@
       <c r="C120" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="11">
         <v>180.59</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="11">
         <v>187.99</v>
       </c>
       <c r="J120" t="s">
@@ -5279,10 +5282,10 @@
       <c r="C121" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="11">
         <v>375.61</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="11">
         <v>102.9</v>
       </c>
       <c r="J121" t="s">
@@ -5306,10 +5309,10 @@
       <c r="C122" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="11">
         <v>200.98</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="11">
         <v>142.35</v>
       </c>
       <c r="J122" t="s">
@@ -5333,10 +5336,10 @@
       <c r="C123" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="11">
         <v>313.17</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="11">
         <v>125.6</v>
       </c>
       <c r="J123" t="s">
@@ -5360,7 +5363,7 @@
       <c r="C124" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="11">
         <v>102.75</v>
       </c>
       <c r="J124" t="s">
@@ -5384,10 +5387,10 @@
       <c r="C125" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="11">
         <v>1090.32</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="11">
         <v>210.13</v>
       </c>
       <c r="J125" t="s">
@@ -5411,13 +5414,13 @@
       <c r="C126" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="11">
         <v>1188.9000000000001</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="11">
         <v>245.48</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="11">
         <v>636.86</v>
       </c>
       <c r="J126" t="s">
@@ -5483,7 +5486,7 @@
       <c r="C129" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="11">
         <v>288.01</v>
       </c>
       <c r="J129" t="s">
@@ -5507,10 +5510,10 @@
       <c r="C130" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="11">
         <v>108.38</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="11">
         <v>1981.41</v>
       </c>
       <c r="J130" t="s">
@@ -5576,7 +5579,7 @@
       <c r="C133" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="11">
         <v>100.73</v>
       </c>
       <c r="J133" t="s">
@@ -5621,10 +5624,10 @@
       <c r="C135" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="11">
         <v>275.93</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="11">
         <v>201.4</v>
       </c>
       <c r="J135" t="s">
@@ -5667,7 +5670,7 @@
       <c r="C137" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="11">
         <v>403.95</v>
       </c>
       <c r="J137" t="s">

--- a/frota.xlsx
+++ b/frota.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\Gerenciamento de frota de veículos v6.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975E7474-9DFA-4BFD-8F93-E5C35EA551DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8C39F0-FE13-4245-B279-9307CC2E9D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A9E33E62-5F44-40B8-AD32-7E71F3A7A556}"/>
   </bookViews>
@@ -2259,8 +2259,8 @@
   <dimension ref="A1:L185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L69" sqref="L69"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5694,6 +5694,12 @@
       <c r="C138" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="D138" s="11">
+        <v>1826.31</v>
+      </c>
+      <c r="E138" s="11">
+        <v>210.15</v>
+      </c>
       <c r="J138" t="s">
         <v>93</v>
       </c>
@@ -5715,6 +5721,12 @@
       <c r="C139" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="D139" s="11">
+        <v>939.69</v>
+      </c>
+      <c r="E139" s="11">
+        <v>108.85</v>
+      </c>
       <c r="J139" t="s">
         <v>93</v>
       </c>
@@ -5735,6 +5747,15 @@
       <c r="C140" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="D140" s="11">
+        <v>664.76</v>
+      </c>
+      <c r="E140" s="11">
+        <v>102</v>
+      </c>
+      <c r="G140" s="11">
+        <v>881.5</v>
+      </c>
       <c r="J140" t="s">
         <v>93</v>
       </c>
@@ -5756,6 +5777,18 @@
       <c r="C141" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D141" s="11">
+        <v>1380.29</v>
+      </c>
+      <c r="E141" s="11">
+        <v>69.8</v>
+      </c>
+      <c r="G141" s="11">
+        <v>284.08999999999997</v>
+      </c>
+      <c r="H141" s="11">
+        <v>73.8</v>
+      </c>
       <c r="J141" t="s">
         <v>93</v>
       </c>
@@ -5777,6 +5810,12 @@
       <c r="C142" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="D142" s="11">
+        <v>820.98</v>
+      </c>
+      <c r="E142" s="11">
+        <v>114.95</v>
+      </c>
       <c r="J142" t="s">
         <v>93</v>
       </c>
@@ -5798,6 +5837,9 @@
       <c r="C143" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="D143" s="11">
+        <v>273.42</v>
+      </c>
       <c r="J143" t="s">
         <v>93</v>
       </c>
@@ -5819,6 +5861,9 @@
       <c r="C144" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="D144" s="11">
+        <v>275.48</v>
+      </c>
       <c r="J144" t="s">
         <v>93</v>
       </c>
@@ -5840,6 +5885,12 @@
       <c r="C145" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="D145" s="11">
+        <v>227.15</v>
+      </c>
+      <c r="E145" s="11">
+        <v>154.30000000000001</v>
+      </c>
       <c r="J145" t="s">
         <v>93</v>
       </c>
@@ -5861,6 +5912,12 @@
       <c r="C146" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="D146" s="11">
+        <v>152.6</v>
+      </c>
+      <c r="E146" s="11">
+        <v>154.30000000000001</v>
+      </c>
       <c r="J146" t="s">
         <v>93</v>
       </c>
@@ -5882,6 +5939,12 @@
       <c r="C147" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="D147" s="11">
+        <v>359.43</v>
+      </c>
+      <c r="E147" s="11">
+        <v>183.1</v>
+      </c>
       <c r="J147" t="s">
         <v>93</v>
       </c>
@@ -5903,6 +5966,9 @@
       <c r="C148" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="E148" s="11">
+        <v>37.79</v>
+      </c>
       <c r="J148" t="s">
         <v>93</v>
       </c>
@@ -5924,6 +5990,15 @@
       <c r="C149" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="D149" s="11">
+        <v>786.01</v>
+      </c>
+      <c r="E149" s="11">
+        <v>177.13</v>
+      </c>
+      <c r="I149" s="11">
+        <v>228.58</v>
+      </c>
       <c r="J149" t="s">
         <v>93</v>
       </c>
@@ -5945,6 +6020,15 @@
       <c r="C150" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="D150" s="11">
+        <v>1286.24</v>
+      </c>
+      <c r="E150" s="11">
+        <v>212.88</v>
+      </c>
+      <c r="I150" s="11">
+        <v>228.58</v>
+      </c>
       <c r="J150" t="s">
         <v>93</v>
       </c>
@@ -5966,6 +6050,9 @@
       <c r="C151" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="E151" s="11">
+        <v>128.29</v>
+      </c>
       <c r="J151" t="s">
         <v>93</v>
       </c>
@@ -6008,6 +6095,12 @@
       <c r="C153" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="G153" s="11">
+        <v>761.19</v>
+      </c>
+      <c r="I153" s="11">
+        <v>400.59</v>
+      </c>
       <c r="J153" t="s">
         <v>93</v>
       </c>
@@ -6029,6 +6122,9 @@
       <c r="C154" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="E154" s="11">
+        <v>124.78</v>
+      </c>
       <c r="J154" t="s">
         <v>93</v>
       </c>
@@ -6113,6 +6209,9 @@
       <c r="C158" s="7" t="s">
         <v>76</v>
       </c>
+      <c r="D158" s="11">
+        <v>204.14</v>
+      </c>
       <c r="J158" t="s">
         <v>93</v>
       </c>
@@ -6134,6 +6233,12 @@
       <c r="C159" s="9" t="s">
         <v>79</v>
       </c>
+      <c r="D159" s="11">
+        <v>437.15</v>
+      </c>
+      <c r="E159" s="11">
+        <v>248.35</v>
+      </c>
       <c r="J159" t="s">
         <v>93</v>
       </c>
@@ -6155,6 +6260,12 @@
       <c r="C160" s="9" t="s">
         <v>88</v>
       </c>
+      <c r="G160" s="11">
+        <v>690.04</v>
+      </c>
+      <c r="H160" s="11">
+        <v>198.08</v>
+      </c>
       <c r="J160" t="s">
         <v>93</v>
       </c>
@@ -6176,6 +6287,9 @@
       <c r="C161" s="9" t="s">
         <v>91</v>
       </c>
+      <c r="E161" s="11">
+        <v>11.97</v>
+      </c>
       <c r="J161" t="s">
         <v>93</v>
       </c>
@@ -6197,6 +6311,9 @@
       <c r="C162" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="E162" s="11">
+        <v>34.700000000000003</v>
+      </c>
       <c r="J162" t="s">
         <v>94</v>
       </c>
@@ -6218,6 +6335,15 @@
       <c r="C163" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="D163" s="11">
+        <v>418.44</v>
+      </c>
+      <c r="E163" s="11">
+        <v>42.35</v>
+      </c>
+      <c r="G163" s="11">
+        <v>206.36</v>
+      </c>
       <c r="J163" t="s">
         <v>94</v>
       </c>
@@ -6238,6 +6364,15 @@
       <c r="C164" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="D164" s="11">
+        <v>653.80999999999995</v>
+      </c>
+      <c r="E164" s="11">
+        <v>103.6</v>
+      </c>
+      <c r="G164" s="11">
+        <v>385.46</v>
+      </c>
       <c r="J164" t="s">
         <v>94</v>
       </c>
@@ -6259,6 +6394,9 @@
       <c r="C165" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D165" s="11">
+        <v>168.25</v>
+      </c>
       <c r="J165" t="s">
         <v>94</v>
       </c>
@@ -6280,6 +6418,15 @@
       <c r="C166" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="D166" s="11">
+        <v>897.71</v>
+      </c>
+      <c r="E166" s="11">
+        <v>190.1</v>
+      </c>
+      <c r="G166" s="11">
+        <v>177.94</v>
+      </c>
       <c r="J166" t="s">
         <v>94</v>
       </c>
@@ -6301,6 +6448,9 @@
       <c r="C167" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="D167" s="11">
+        <v>334.01</v>
+      </c>
       <c r="J167" t="s">
         <v>94</v>
       </c>
@@ -6322,6 +6472,12 @@
       <c r="C168" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="D168" s="11">
+        <v>246.8</v>
+      </c>
+      <c r="G168" s="11">
+        <v>734.05</v>
+      </c>
       <c r="J168" t="s">
         <v>94</v>
       </c>
@@ -6343,6 +6499,12 @@
       <c r="C169" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="D169" s="11">
+        <v>181.45</v>
+      </c>
+      <c r="E169" s="11">
+        <v>54.05</v>
+      </c>
       <c r="J169" t="s">
         <v>94</v>
       </c>
@@ -6364,6 +6526,12 @@
       <c r="C170" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="D170" s="11">
+        <v>343.8</v>
+      </c>
+      <c r="E170" s="11">
+        <v>160.69999999999999</v>
+      </c>
       <c r="J170" t="s">
         <v>94</v>
       </c>
@@ -6385,6 +6553,12 @@
       <c r="C171" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="D171" s="11">
+        <v>243.99</v>
+      </c>
+      <c r="E171" s="11">
+        <v>127</v>
+      </c>
       <c r="J171" t="s">
         <v>94</v>
       </c>
@@ -6406,6 +6580,9 @@
       <c r="C172" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="E172" s="11">
+        <v>6.1</v>
+      </c>
       <c r="J172" t="s">
         <v>94</v>
       </c>
@@ -6427,6 +6604,12 @@
       <c r="C173" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="D173" s="11">
+        <v>1241.47</v>
+      </c>
+      <c r="E173" s="11">
+        <v>240.1</v>
+      </c>
       <c r="J173" t="s">
         <v>94</v>
       </c>
@@ -6448,6 +6631,12 @@
       <c r="C174" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="D174" s="11">
+        <v>732.56</v>
+      </c>
+      <c r="E174" s="11">
+        <v>125</v>
+      </c>
       <c r="J174" t="s">
         <v>94</v>
       </c>
@@ -6469,6 +6658,9 @@
       <c r="C175" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="E175" s="11">
+        <v>81.849999999999994</v>
+      </c>
       <c r="J175" t="s">
         <v>94</v>
       </c>
@@ -6490,6 +6682,9 @@
       <c r="C176" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="G176" s="11">
+        <v>143.80000000000001</v>
+      </c>
       <c r="J176" t="s">
         <v>94</v>
       </c>
@@ -6532,6 +6727,9 @@
       <c r="C178" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="E178" s="11">
+        <v>113.65</v>
+      </c>
       <c r="J178" t="s">
         <v>94</v>
       </c>
@@ -6595,6 +6793,9 @@
       <c r="C181" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="D181" s="11">
+        <v>1289.45</v>
+      </c>
       <c r="J181" t="s">
         <v>94</v>
       </c>
@@ -6616,6 +6817,9 @@
       <c r="C182" s="7" t="s">
         <v>76</v>
       </c>
+      <c r="D182" s="11">
+        <v>162.1</v>
+      </c>
       <c r="J182" t="s">
         <v>94</v>
       </c>
@@ -6637,6 +6841,15 @@
       <c r="C183" s="9" t="s">
         <v>79</v>
       </c>
+      <c r="D183" s="11">
+        <v>343.23</v>
+      </c>
+      <c r="E183" s="11">
+        <v>219.3</v>
+      </c>
+      <c r="F183" s="11">
+        <v>2.1</v>
+      </c>
       <c r="J183" t="s">
         <v>94</v>
       </c>
@@ -6678,6 +6891,9 @@
       </c>
       <c r="C185" s="9" t="s">
         <v>91</v>
+      </c>
+      <c r="E185" s="11">
+        <v>5.55</v>
       </c>
       <c r="J185" t="s">
         <v>94</v>

--- a/frota.xlsx
+++ b/frota.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\Gerenciamento de frota de veículos v6.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8C39F0-FE13-4245-B279-9307CC2E9D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E212863-F06F-48FA-8639-4424F7130D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A9E33E62-5F44-40B8-AD32-7E71F3A7A556}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="96">
   <si>
     <t>Fabricante</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>Agosto</t>
+  </si>
+  <si>
+    <t>Setembro</t>
   </si>
 </sst>
 </file>
@@ -528,6 +531,7 @@
       <sheetName val="Junho"/>
       <sheetName val="Julho"/>
       <sheetName val="Agosto"/>
+      <sheetName val="Setembro"/>
       <sheetName val="Dados"/>
       <sheetName val="Sheet4"/>
       <sheetName val="FimSemana"/>
@@ -548,7 +552,8 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14">
         <row r="2">
           <cell r="L2" t="str">
             <v>05-XE-51</v>
@@ -597,6 +602,33 @@
           </cell>
           <cell r="AA2">
             <v>4.9442290486131828</v>
+          </cell>
+          <cell r="AB2">
+            <v>260.66000000000003</v>
+          </cell>
+          <cell r="AC2">
+            <v>4229</v>
+          </cell>
+          <cell r="AD2">
+            <v>6.163632064317806</v>
+          </cell>
+          <cell r="AE2">
+            <v>262.85000000000002</v>
+          </cell>
+          <cell r="AF2">
+            <v>4136</v>
+          </cell>
+          <cell r="AG2">
+            <v>6.3551740812379114</v>
+          </cell>
+          <cell r="AH2">
+            <v>223.82</v>
+          </cell>
+          <cell r="AI2">
+            <v>5251</v>
+          </cell>
+          <cell r="AJ2">
+            <v>4.2624262045324697</v>
           </cell>
         </row>
         <row r="3">
@@ -627,8 +659,8 @@
           <cell r="T3">
             <v>294</v>
           </cell>
-          <cell r="U3" t="str">
-            <v>Erro</v>
+          <cell r="U3">
+            <v>271.11564625850349</v>
           </cell>
           <cell r="V3">
             <v>797.08000000000015</v>
@@ -647,6 +679,33 @@
           </cell>
           <cell r="AA3">
             <v>1228.1739130434783</v>
+          </cell>
+          <cell r="AB3">
+            <v>1094.29</v>
+          </cell>
+          <cell r="AC3">
+            <v>1593</v>
+          </cell>
+          <cell r="AD3">
+            <v>68.693659761456374</v>
+          </cell>
+          <cell r="AE3">
+            <v>0</v>
+          </cell>
+          <cell r="AF3">
+            <v>554</v>
+          </cell>
+          <cell r="AG3">
+            <v>0</v>
+          </cell>
+          <cell r="AH3">
+            <v>0</v>
+          </cell>
+          <cell r="AI3">
+            <v>24</v>
+          </cell>
+          <cell r="AJ3">
+            <v>0</v>
           </cell>
         </row>
         <row r="4">
@@ -698,6 +757,33 @@
           <cell r="AA4">
             <v>19.964817320703652</v>
           </cell>
+          <cell r="AB4">
+            <v>541.36999999999989</v>
+          </cell>
+          <cell r="AC4">
+            <v>2683</v>
+          </cell>
+          <cell r="AD4">
+            <v>20.177786060380168</v>
+          </cell>
+          <cell r="AE4">
+            <v>604.45000000000005</v>
+          </cell>
+          <cell r="AF4">
+            <v>3465</v>
+          </cell>
+          <cell r="AG4">
+            <v>17.444444444444446</v>
+          </cell>
+          <cell r="AH4">
+            <v>452.85</v>
+          </cell>
+          <cell r="AI4">
+            <v>2005</v>
+          </cell>
+          <cell r="AJ4">
+            <v>22.586034912718205</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="L5" t="str">
@@ -742,6 +828,33 @@
           <cell r="AA5">
             <v>0</v>
           </cell>
+          <cell r="AB5">
+            <v>71.28</v>
+          </cell>
+          <cell r="AC5">
+            <v>0</v>
+          </cell>
+          <cell r="AD5">
+            <v>0</v>
+          </cell>
+          <cell r="AE5">
+            <v>784.23</v>
+          </cell>
+          <cell r="AF5">
+            <v>0</v>
+          </cell>
+          <cell r="AG5">
+            <v>0</v>
+          </cell>
+          <cell r="AH5">
+            <v>421.45</v>
+          </cell>
+          <cell r="AI5">
+            <v>0</v>
+          </cell>
+          <cell r="AJ5">
+            <v>0</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="L6" t="str">
@@ -792,6 +905,33 @@
           <cell r="AA6">
             <v>7.1377322229340168</v>
           </cell>
+          <cell r="AB6">
+            <v>163.87</v>
+          </cell>
+          <cell r="AC6">
+            <v>1504</v>
+          </cell>
+          <cell r="AD6">
+            <v>10.89561170212766</v>
+          </cell>
+          <cell r="AE6">
+            <v>150.74</v>
+          </cell>
+          <cell r="AF6">
+            <v>542</v>
+          </cell>
+          <cell r="AG6">
+            <v>27.811808118081181</v>
+          </cell>
+          <cell r="AH6">
+            <v>59.9</v>
+          </cell>
+          <cell r="AI6">
+            <v>1103</v>
+          </cell>
+          <cell r="AJ6">
+            <v>5.4306436990027196</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="L7" t="str">
@@ -842,6 +982,33 @@
           <cell r="AA7">
             <v>28.747196738022424</v>
           </cell>
+          <cell r="AB7">
+            <v>395.50999999999993</v>
+          </cell>
+          <cell r="AC7">
+            <v>1794</v>
+          </cell>
+          <cell r="AD7">
+            <v>22.046265328874021</v>
+          </cell>
+          <cell r="AE7">
+            <v>393.82</v>
+          </cell>
+          <cell r="AF7">
+            <v>1615</v>
+          </cell>
+          <cell r="AG7">
+            <v>24.38513931888545</v>
+          </cell>
+          <cell r="AH7">
+            <v>780.37000000000012</v>
+          </cell>
+          <cell r="AI7">
+            <v>3547</v>
+          </cell>
+          <cell r="AJ7">
+            <v>22.000845785170569</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="L8" t="str">
@@ -892,6 +1059,33 @@
           <cell r="AA8">
             <v>26.550539744847885</v>
           </cell>
+          <cell r="AB8">
+            <v>560.47</v>
+          </cell>
+          <cell r="AC8">
+            <v>1937</v>
+          </cell>
+          <cell r="AD8">
+            <v>28.934950955085188</v>
+          </cell>
+          <cell r="AE8">
+            <v>251.68</v>
+          </cell>
+          <cell r="AF8">
+            <v>782</v>
+          </cell>
+          <cell r="AG8">
+            <v>32.184143222506393</v>
+          </cell>
+          <cell r="AH8">
+            <v>181</v>
+          </cell>
+          <cell r="AI8">
+            <v>621</v>
+          </cell>
+          <cell r="AJ8">
+            <v>29.146537842190018</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="L9" t="str">
@@ -942,6 +1136,33 @@
           <cell r="AA9">
             <v>22.504118616144975</v>
           </cell>
+          <cell r="AB9">
+            <v>823.15999999999985</v>
+          </cell>
+          <cell r="AC9">
+            <v>3648</v>
+          </cell>
+          <cell r="AD9">
+            <v>22.564692982456137</v>
+          </cell>
+          <cell r="AE9">
+            <v>100.28</v>
+          </cell>
+          <cell r="AF9">
+            <v>441</v>
+          </cell>
+          <cell r="AG9">
+            <v>22.73922902494331</v>
+          </cell>
+          <cell r="AH9">
+            <v>0</v>
+          </cell>
+          <cell r="AI9">
+            <v>9</v>
+          </cell>
+          <cell r="AJ9">
+            <v>0</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="L10" t="str">
@@ -986,6 +1207,33 @@
           <cell r="AA10">
             <v>0</v>
           </cell>
+          <cell r="AB10">
+            <v>120.97</v>
+          </cell>
+          <cell r="AC10">
+            <v>0</v>
+          </cell>
+          <cell r="AD10">
+            <v>0</v>
+          </cell>
+          <cell r="AE10">
+            <v>98.76</v>
+          </cell>
+          <cell r="AF10">
+            <v>0</v>
+          </cell>
+          <cell r="AG10">
+            <v>0</v>
+          </cell>
+          <cell r="AH10">
+            <v>242.38000000000002</v>
+          </cell>
+          <cell r="AI10">
+            <v>0</v>
+          </cell>
+          <cell r="AJ10">
+            <v>0</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="L11" t="str">
@@ -1036,6 +1284,33 @@
           <cell r="AA11">
             <v>0</v>
           </cell>
+          <cell r="AB11">
+            <v>260.48</v>
+          </cell>
+          <cell r="AC11">
+            <v>0</v>
+          </cell>
+          <cell r="AD11">
+            <v>0</v>
+          </cell>
+          <cell r="AE11">
+            <v>727.51</v>
+          </cell>
+          <cell r="AF11">
+            <v>0</v>
+          </cell>
+          <cell r="AG11">
+            <v>0</v>
+          </cell>
+          <cell r="AH11">
+            <v>623.41</v>
+          </cell>
+          <cell r="AI11">
+            <v>0</v>
+          </cell>
+          <cell r="AJ11">
+            <v>0</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="L12" t="str">
@@ -1083,6 +1358,33 @@
           <cell r="AA12">
             <v>0</v>
           </cell>
+          <cell r="AB12">
+            <v>226.49</v>
+          </cell>
+          <cell r="AC12">
+            <v>0</v>
+          </cell>
+          <cell r="AD12">
+            <v>0</v>
+          </cell>
+          <cell r="AE12">
+            <v>196.61</v>
+          </cell>
+          <cell r="AF12">
+            <v>0</v>
+          </cell>
+          <cell r="AG12">
+            <v>0</v>
+          </cell>
+          <cell r="AH12">
+            <v>239.92999999999998</v>
+          </cell>
+          <cell r="AI12">
+            <v>0</v>
+          </cell>
+          <cell r="AJ12">
+            <v>0</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="L13" t="str">
@@ -1133,6 +1435,33 @@
           <cell r="AA13">
             <v>6.7315357561547478</v>
           </cell>
+          <cell r="AB13">
+            <v>135.79</v>
+          </cell>
+          <cell r="AC13">
+            <v>2400</v>
+          </cell>
+          <cell r="AD13">
+            <v>5.6579166666666669</v>
+          </cell>
+          <cell r="AE13">
+            <v>110.66</v>
+          </cell>
+          <cell r="AF13">
+            <v>2293</v>
+          </cell>
+          <cell r="AG13">
+            <v>4.825992150021805</v>
+          </cell>
+          <cell r="AH13">
+            <v>208.38</v>
+          </cell>
+          <cell r="AI13">
+            <v>3743</v>
+          </cell>
+          <cell r="AJ13">
+            <v>5.5671920919048894</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="L14" t="str">
@@ -1183,6 +1512,33 @@
           <cell r="AA14">
             <v>5.9129943502824851</v>
           </cell>
+          <cell r="AB14">
+            <v>144.16</v>
+          </cell>
+          <cell r="AC14">
+            <v>3594</v>
+          </cell>
+          <cell r="AD14">
+            <v>4.011129660545353</v>
+          </cell>
+          <cell r="AE14">
+            <v>303.23</v>
+          </cell>
+          <cell r="AF14">
+            <v>4488</v>
+          </cell>
+          <cell r="AG14">
+            <v>6.756461675579323</v>
+          </cell>
+          <cell r="AH14">
+            <v>318.75</v>
+          </cell>
+          <cell r="AI14">
+            <v>4411</v>
+          </cell>
+          <cell r="AJ14">
+            <v>7.2262525504420765</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="L15" t="str">
@@ -1230,6 +1586,33 @@
           <cell r="AA15">
             <v>0</v>
           </cell>
+          <cell r="AB15">
+            <v>268.43</v>
+          </cell>
+          <cell r="AC15">
+            <v>0</v>
+          </cell>
+          <cell r="AD15">
+            <v>0</v>
+          </cell>
+          <cell r="AE15">
+            <v>236.75000000000003</v>
+          </cell>
+          <cell r="AF15">
+            <v>0</v>
+          </cell>
+          <cell r="AG15">
+            <v>0</v>
+          </cell>
+          <cell r="AH15">
+            <v>217.39999999999998</v>
+          </cell>
+          <cell r="AI15">
+            <v>0</v>
+          </cell>
+          <cell r="AJ15">
+            <v>0</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="L16" t="str">
@@ -1280,6 +1663,33 @@
           <cell r="AA16">
             <v>8.5189807592303683</v>
           </cell>
+          <cell r="AB16">
+            <v>350.07000000000005</v>
+          </cell>
+          <cell r="AC16">
+            <v>4911</v>
+          </cell>
+          <cell r="AD16">
+            <v>7.1282834453268187</v>
+          </cell>
+          <cell r="AE16">
+            <v>250.87</v>
+          </cell>
+          <cell r="AF16">
+            <v>3105</v>
+          </cell>
+          <cell r="AG16">
+            <v>8.0795491143317228</v>
+          </cell>
+          <cell r="AH16">
+            <v>235.68</v>
+          </cell>
+          <cell r="AI16">
+            <v>4689</v>
+          </cell>
+          <cell r="AJ16">
+            <v>5.0262316058861165</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="L17" t="str">
@@ -1330,6 +1740,33 @@
           <cell r="AA17">
             <v>30.025247971145173</v>
           </cell>
+          <cell r="AB17">
+            <v>520.67000000000007</v>
+          </cell>
+          <cell r="AC17">
+            <v>2201</v>
+          </cell>
+          <cell r="AD17">
+            <v>23.656065424806911</v>
+          </cell>
+          <cell r="AE17">
+            <v>755.24999999999989</v>
+          </cell>
+          <cell r="AF17">
+            <v>2862</v>
+          </cell>
+          <cell r="AG17">
+            <v>26.388888888888886</v>
+          </cell>
+          <cell r="AH17">
+            <v>661.51</v>
+          </cell>
+          <cell r="AI17">
+            <v>2592</v>
+          </cell>
+          <cell r="AJ17">
+            <v>25.521219135802468</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="L18" t="str">
@@ -1380,6 +1817,33 @@
           <cell r="AA18">
             <v>29.155609167671898</v>
           </cell>
+          <cell r="AB18">
+            <v>767.5</v>
+          </cell>
+          <cell r="AC18">
+            <v>2583</v>
+          </cell>
+          <cell r="AD18">
+            <v>29.713511420828493</v>
+          </cell>
+          <cell r="AE18">
+            <v>447.62999999999994</v>
+          </cell>
+          <cell r="AF18">
+            <v>1440</v>
+          </cell>
+          <cell r="AG18">
+            <v>31.08541666666666</v>
+          </cell>
+          <cell r="AH18">
+            <v>682.8599999999999</v>
+          </cell>
+          <cell r="AI18">
+            <v>2127</v>
+          </cell>
+          <cell r="AJ18">
+            <v>32.104372355430179</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="L19" t="str">
@@ -1428,6 +1892,33 @@
             <v>0</v>
           </cell>
           <cell r="AA19">
+            <v>0</v>
+          </cell>
+          <cell r="AB19">
+            <v>163.19999999999999</v>
+          </cell>
+          <cell r="AC19">
+            <v>0</v>
+          </cell>
+          <cell r="AD19">
+            <v>0</v>
+          </cell>
+          <cell r="AE19">
+            <v>202.89</v>
+          </cell>
+          <cell r="AF19">
+            <v>0</v>
+          </cell>
+          <cell r="AG19">
+            <v>0</v>
+          </cell>
+          <cell r="AH19">
+            <v>80.2</v>
+          </cell>
+          <cell r="AI19">
+            <v>0</v>
+          </cell>
+          <cell r="AJ19">
             <v>0</v>
           </cell>
         </row>
@@ -2256,11 +2747,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372F671E-76E6-4376-A057-BA332585AEF9}">
-  <dimension ref="A1:L185"/>
+  <dimension ref="A1:L209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H170" sqref="H170"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2796,7 +3287,7 @@
         <v>2025</v>
       </c>
       <c r="L24" s="11">
-        <f>IFERROR(VLOOKUP(C24,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C24,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>17.857807308970099</v>
       </c>
     </row>
@@ -2826,7 +3317,7 @@
         <v>2025</v>
       </c>
       <c r="L25" s="11">
-        <f>IFERROR(VLOOKUP(C25,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C25,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>25.397995705082323</v>
       </c>
     </row>
@@ -2856,7 +3347,7 @@
         <v>2025</v>
       </c>
       <c r="L26" s="11">
-        <f>IFERROR(VLOOKUP(C26,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C26,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>6.4586614173228352</v>
       </c>
     </row>
@@ -2886,7 +3377,7 @@
         <v>2025</v>
       </c>
       <c r="L27" s="11">
-        <f>IFERROR(VLOOKUP(C27,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C27,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>27.32341110217217</v>
       </c>
     </row>
@@ -2913,7 +3404,7 @@
         <v>2025</v>
       </c>
       <c r="L28" s="11">
-        <f>IFERROR(VLOOKUP(C28,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C28,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>16.719829258828096</v>
       </c>
     </row>
@@ -2963,7 +3454,7 @@
         <v>2025</v>
       </c>
       <c r="L30" s="11">
-        <f>IFERROR(VLOOKUP(C30,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C30,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>12.497641509433961</v>
       </c>
     </row>
@@ -2990,7 +3481,7 @@
         <v>2025</v>
       </c>
       <c r="L31" s="11">
-        <f>IFERROR(VLOOKUP(C31,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C31,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>4.787167120989726</v>
       </c>
     </row>
@@ -3020,7 +3511,7 @@
         <v>2025</v>
       </c>
       <c r="L32" s="11">
-        <f>IFERROR(VLOOKUP(C32,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C32,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>8.9100000000000019</v>
       </c>
     </row>
@@ -3047,7 +3538,7 @@
         <v>2025</v>
       </c>
       <c r="L33" s="11">
-        <f>IFERROR(VLOOKUP(C33,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C33,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>6.5954462289083136</v>
       </c>
     </row>
@@ -3071,7 +3562,7 @@
         <v>2025</v>
       </c>
       <c r="L34" s="11">
-        <f>IFERROR(VLOOKUP(C34,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C34,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3101,7 +3592,7 @@
         <v>2025</v>
       </c>
       <c r="L35" s="11">
-        <f>IFERROR(VLOOKUP(C35,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C35,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>24.492204899777288</v>
       </c>
     </row>
@@ -3131,7 +3622,7 @@
         <v>2025</v>
       </c>
       <c r="L36" s="11">
-        <f>IFERROR(VLOOKUP(C36,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C36,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>22.734932349323493</v>
       </c>
     </row>
@@ -3155,7 +3646,7 @@
         <v>2025</v>
       </c>
       <c r="L37" s="11">
-        <f>IFERROR(VLOOKUP(C37,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C37,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3176,7 +3667,7 @@
         <v>2025</v>
       </c>
       <c r="L38" s="11">
-        <f>IFERROR(VLOOKUP(C38,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C38,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3197,7 +3688,7 @@
         <v>2025</v>
       </c>
       <c r="L39" s="11">
-        <f>IFERROR(VLOOKUP(C39,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C39,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3218,7 +3709,7 @@
         <v>2025</v>
       </c>
       <c r="L40" s="11">
-        <f>IFERROR(VLOOKUP(C40,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C40,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3239,7 +3730,7 @@
         <v>2025</v>
       </c>
       <c r="L41" s="11">
-        <f>IFERROR(VLOOKUP(C41,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C41,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3260,7 +3751,7 @@
         <v>2025</v>
       </c>
       <c r="L42" s="11">
-        <f>IFERROR(VLOOKUP(C42,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C42,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3281,7 +3772,7 @@
         <v>2025</v>
       </c>
       <c r="L43" s="11">
-        <f>IFERROR(VLOOKUP(C43,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C43,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>32.78947368421052</v>
       </c>
     </row>
@@ -3305,7 +3796,7 @@
         <v>2025</v>
       </c>
       <c r="L44" s="11">
-        <f>IFERROR(VLOOKUP(C44,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C44,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3326,7 +3817,7 @@
         <v>2025</v>
       </c>
       <c r="L45" s="11">
-        <f>IFERROR(VLOOKUP(C45,[1]LT!$L$2:$O$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C45,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>1.4289283037721709</v>
       </c>
     </row>
@@ -3356,8 +3847,8 @@
         <v>2025</v>
       </c>
       <c r="L46" s="11">
-        <f>IFERROR(VLOOKUP(C46,[1]LT!$L$2:$R$19,7,0),0)</f>
-        <v>37.281407035175882</v>
+        <f>IFERROR(VLOOKUP(C46,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>17.857807308970099</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3386,8 +3877,8 @@
         <v>2025</v>
       </c>
       <c r="L47" s="11">
-        <f>IFERROR(VLOOKUP(C47,[1]LT!$L$2:$R$19,7,0),0)</f>
-        <v>19.192199578355588</v>
+        <f>IFERROR(VLOOKUP(C47,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>25.397995705082323</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3416,8 +3907,8 @@
         <v>2025</v>
       </c>
       <c r="L48" s="11">
-        <f>IFERROR(VLOOKUP(C48,[1]LT!$L$2:$R$19,7,0),0)</f>
-        <v>3.6287650602409633</v>
+        <f>IFERROR(VLOOKUP(C48,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>6.4586614173228352</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3449,8 +3940,8 @@
         <v>2025</v>
       </c>
       <c r="L49" s="11">
-        <f>IFERROR(VLOOKUP(C49,[1]LT!$L$2:$R$19,7,0),0)</f>
-        <v>23.889205444761</v>
+        <f>IFERROR(VLOOKUP(C49,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>27.32341110217217</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3479,8 +3970,8 @@
         <v>2025</v>
       </c>
       <c r="L50" s="11">
-        <f>IFERROR(VLOOKUP(C50,[1]LT!$L$2:$R$19,7,0),0)</f>
-        <v>17.328478344193176</v>
+        <f>IFERROR(VLOOKUP(C50,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>16.719829258828096</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3526,8 +4017,8 @@
         <v>2025</v>
       </c>
       <c r="L52" s="11">
-        <f>IFERROR(VLOOKUP(C52,[1]LT!$L$2:$R$19,7,0),0)</f>
-        <v>10.070480081716038</v>
+        <f>IFERROR(VLOOKUP(C52,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>12.497641509433961</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3553,8 +4044,8 @@
         <v>2025</v>
       </c>
       <c r="L53" s="11">
-        <f>IFERROR(VLOOKUP(C53,[1]LT!$L$2:$R$19,7,0),0)</f>
-        <v>4.4963054187192117</v>
+        <f>IFERROR(VLOOKUP(C53,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>4.787167120989726</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3583,8 +4074,8 @@
         <v>2025</v>
       </c>
       <c r="L54" s="11">
-        <f>IFERROR(VLOOKUP(C54,[1]LT!$L$2:$R$19,7,0),0)</f>
-        <v>7.7149472600977624</v>
+        <f>IFERROR(VLOOKUP(C54,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>8.9100000000000019</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3613,8 +4104,8 @@
         <v>2025</v>
       </c>
       <c r="L55" s="11">
-        <f>IFERROR(VLOOKUP(C55,[1]LT!$L$2:$R$19,7,0),0)</f>
-        <v>5.84830069772676</v>
+        <f>IFERROR(VLOOKUP(C55,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>6.5954462289083136</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3637,7 +4128,7 @@
         <v>2025</v>
       </c>
       <c r="L56" s="11">
-        <f>IFERROR(VLOOKUP(C56,[1]LT!$L$2:$R$19,7,0),0)</f>
+        <f>IFERROR(VLOOKUP(C56,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3664,8 +4155,8 @@
         <v>2025</v>
       </c>
       <c r="L57" s="11">
-        <f>IFERROR(VLOOKUP(C57,[1]LT!$L$2:$R$19,7,0),0)</f>
-        <v>28.495356037151705</v>
+        <f>IFERROR(VLOOKUP(C57,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>24.492204899777288</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3691,8 +4182,8 @@
         <v>2025</v>
       </c>
       <c r="L58" s="11">
-        <f>IFERROR(VLOOKUP(C58,[1]LT!$L$2:$R$19,7,0),0)</f>
-        <v>38.149371069182394</v>
+        <f>IFERROR(VLOOKUP(C58,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>22.734932349323493</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3715,7 +4206,7 @@
         <v>2025</v>
       </c>
       <c r="L59" s="11">
-        <f>IFERROR(VLOOKUP(C59,[1]LT!$L$2:$R$19,7,0),0)</f>
+        <f>IFERROR(VLOOKUP(C59,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3739,7 +4230,7 @@
         <v>2025</v>
       </c>
       <c r="L60" s="11">
-        <f>IFERROR(VLOOKUP(C60,[1]LT!$L$2:$R$19,7,0),0)</f>
+        <f>IFERROR(VLOOKUP(C60,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3766,7 +4257,7 @@
         <v>2025</v>
       </c>
       <c r="L61" s="11">
-        <f>IFERROR(VLOOKUP(C61,[1]LT!$L$2:$R$19,7,0),0)</f>
+        <f>IFERROR(VLOOKUP(C61,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3787,7 +4278,7 @@
         <v>2025</v>
       </c>
       <c r="L62" s="11">
-        <f>IFERROR(VLOOKUP(C62,[1]LT!$L$2:$R$19,7,0),0)</f>
+        <f>IFERROR(VLOOKUP(C62,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3808,7 +4299,7 @@
         <v>2025</v>
       </c>
       <c r="L63" s="11">
-        <f>IFERROR(VLOOKUP(C63,[1]LT!$L$2:$R$19,7,0),0)</f>
+        <f>IFERROR(VLOOKUP(C63,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3829,7 +4320,7 @@
         <v>2025</v>
       </c>
       <c r="L64" s="11">
-        <f>IFERROR(VLOOKUP(C64,[1]LT!$L$2:$R$19,7,0),0)</f>
+        <f>IFERROR(VLOOKUP(C64,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3856,7 +4347,8 @@
         <v>2025</v>
       </c>
       <c r="L65" s="11">
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C65,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>32.78947368421052</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3876,7 +4368,7 @@
         <v>2025</v>
       </c>
       <c r="L66" s="11">
-        <f>IFERROR(VLOOKUP(C66,[1]LT!$L$2:$R$19,7,0),0)</f>
+        <f>IFERROR(VLOOKUP(C66,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3900,8 +4392,8 @@
         <v>2025</v>
       </c>
       <c r="L67" s="11">
-        <f>IFERROR(VLOOKUP(C67,[1]LT!$L$2:$R$19,7,0),0)</f>
-        <v>2.8815357413488254</v>
+        <f>IFERROR(VLOOKUP(C67,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>1.4289283037721709</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3927,7 +4419,8 @@
         <v>2025</v>
       </c>
       <c r="L68" s="11">
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C68,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>17.857807308970099</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3953,8 +4446,8 @@
         <v>2025</v>
       </c>
       <c r="L69" s="11">
-        <f>IFERROR(VLOOKUP(C69,[1]LT!$L$2:$U$19,10,0),0)</f>
-        <v>34.506426735218518</v>
+        <f>IFERROR(VLOOKUP(C69,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>25.397995705082323</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3977,8 +4470,8 @@
         <v>2025</v>
       </c>
       <c r="L70" s="11">
-        <f>IFERROR(VLOOKUP(C70,[1]LT!$L$2:$U$19,10,0),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C70,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>6.4586614173228352</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4007,8 +4500,8 @@
         <v>2025</v>
       </c>
       <c r="L71" s="11">
-        <f>IFERROR(VLOOKUP(C71,[1]LT!$L$2:$U$19,10,0),0)</f>
-        <v>25.392689005815566</v>
+        <f>IFERROR(VLOOKUP(C71,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>27.32341110217217</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4043,8 +4536,8 @@
         <v>2025</v>
       </c>
       <c r="L72" s="11">
-        <f>IFERROR(VLOOKUP(C72,[1]LT!$L$2:$U$19,10,0),0)</f>
-        <v>17.387365911799758</v>
+        <f>IFERROR(VLOOKUP(C72,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>16.719829258828096</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4090,8 +4583,8 @@
         <v>2025</v>
       </c>
       <c r="L74" s="11">
-        <f>IFERROR(VLOOKUP(C74,[1]LT!$L$2:$U$19,10,0),0)</f>
-        <v>14.263888888888888</v>
+        <f>IFERROR(VLOOKUP(C74,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>12.497641509433961</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4120,8 +4613,8 @@
         <v>2025</v>
       </c>
       <c r="L75" s="11">
-        <f>IFERROR(VLOOKUP(C75,[1]LT!$L$2:$U$19,10,0),0)</f>
-        <v>5.6880466472303208</v>
+        <f>IFERROR(VLOOKUP(C75,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>4.787167120989726</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4153,8 +4646,8 @@
         <v>2025</v>
       </c>
       <c r="L76" s="11">
-        <f>IFERROR(VLOOKUP(C76,[1]LT!$L$2:$U$19,10,0),0)</f>
-        <v>5.7857578840284853</v>
+        <f>IFERROR(VLOOKUP(C76,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>8.9100000000000019</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4180,8 +4673,8 @@
         <v>2025</v>
       </c>
       <c r="L77" s="11">
-        <f>IFERROR(VLOOKUP(C77,[1]LT!$L$2:$U$19,10,0),0)</f>
-        <v>6.9953628564804085</v>
+        <f>IFERROR(VLOOKUP(C77,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>6.5954462289083136</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4204,7 +4697,7 @@
         <v>2025</v>
       </c>
       <c r="L78" s="11">
-        <f>IFERROR(VLOOKUP(C78,[1]LT!$L$2:$U$19,10,0),0)</f>
+        <f>IFERROR(VLOOKUP(C78,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4234,8 +4727,8 @@
         <v>2025</v>
       </c>
       <c r="L79" s="11">
-        <f>IFERROR(VLOOKUP(C79,[1]LT!$L$2:$U$19,10,0),0)</f>
-        <v>25.852240613645538</v>
+        <f>IFERROR(VLOOKUP(C79,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>24.492204899777288</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4261,8 +4754,8 @@
         <v>2025</v>
       </c>
       <c r="L80" s="11">
-        <f>IFERROR(VLOOKUP(C80,[1]LT!$L$2:$U$19,10,0),0)</f>
-        <v>46.488316357100054</v>
+        <f>IFERROR(VLOOKUP(C80,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>22.734932349323493</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4285,7 +4778,7 @@
         <v>2025</v>
       </c>
       <c r="L81" s="11">
-        <f>IFERROR(VLOOKUP(C81,[1]LT!$L$2:$U$19,10,0),0)</f>
+        <f>IFERROR(VLOOKUP(C81,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4306,7 +4799,7 @@
         <v>2025</v>
       </c>
       <c r="L82" s="11">
-        <f>IFERROR(VLOOKUP(C82,[1]LT!$L$2:$U$19,10,0),0)</f>
+        <f>IFERROR(VLOOKUP(C82,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4327,7 +4820,7 @@
         <v>2025</v>
       </c>
       <c r="L83" s="11">
-        <f>IFERROR(VLOOKUP(C83,[1]LT!$L$2:$U$19,10,0),0)</f>
+        <f>IFERROR(VLOOKUP(C83,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4351,7 +4844,7 @@
         <v>2025</v>
       </c>
       <c r="L84" s="11">
-        <f>IFERROR(VLOOKUP(C84,[1]LT!$L$2:$U$19,10,0),0)</f>
+        <f>IFERROR(VLOOKUP(C84,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4372,7 +4865,7 @@
         <v>2025</v>
       </c>
       <c r="L85" s="11">
-        <f>IFERROR(VLOOKUP(C85,[1]LT!$L$2:$U$19,10,0),0)</f>
+        <f>IFERROR(VLOOKUP(C85,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4393,7 +4886,7 @@
         <v>2025</v>
       </c>
       <c r="L86" s="11">
-        <f>IFERROR(VLOOKUP(C86,[1]LT!$L$2:$U$19,10,0),0)</f>
+        <f>IFERROR(VLOOKUP(C86,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4417,8 +4910,8 @@
         <v>2025</v>
       </c>
       <c r="L87" s="11">
-        <f>IFERROR(VLOOKUP(C87,[1]LT!$L$2:$U$19,10,0),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C87,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>32.78947368421052</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -4438,7 +4931,7 @@
         <v>2025</v>
       </c>
       <c r="L88" s="11">
-        <f>IFERROR(VLOOKUP(C88,[1]LT!$L$2:$U$19,10,0),0)</f>
+        <f>IFERROR(VLOOKUP(C88,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4465,8 +4958,8 @@
         <v>2025</v>
       </c>
       <c r="L89" s="11">
-        <f>IFERROR(VLOOKUP(C89,[1]LT!$L$2:$U$19,10,0),0)</f>
-        <v>8.0140692640692635</v>
+        <f>IFERROR(VLOOKUP(C89,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>1.4289283037721709</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4489,7 +4982,7 @@
         <v>2025</v>
       </c>
       <c r="L90" s="11">
-        <f>IFERROR(VLOOKUP(C90,[1]LT!$L$2:$U$19,10,0),0)</f>
+        <f>IFERROR(VLOOKUP(C90,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4519,8 +5012,8 @@
         <v>2025</v>
       </c>
       <c r="L91" s="11">
-        <f>IFERROR(VLOOKUP(C91,[1]LT!$L$2:$X$19,13,0),0)</f>
-        <v>52.267540983606565</v>
+        <f>IFERROR(VLOOKUP(C91,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>17.857807308970099</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4549,8 +5042,8 @@
         <v>2025</v>
       </c>
       <c r="L92" s="11">
-        <f>IFERROR(VLOOKUP(C92,[1]LT!$L$2:$X$19,13,0),0)</f>
-        <v>25.551395939086298</v>
+        <f>IFERROR(VLOOKUP(C92,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>25.397995705082323</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4576,8 +5069,8 @@
         <v>2025</v>
       </c>
       <c r="L93" s="11">
-        <f>IFERROR(VLOOKUP(C93,[1]LT!$L$2:$X$19,13,0),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C93,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>6.4586614173228352</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4603,8 +5096,8 @@
         <v>2025</v>
       </c>
       <c r="L94" s="11">
-        <f>IFERROR(VLOOKUP(C94,[1]LT!$L$2:$X$19,13,0),0)</f>
-        <v>22.601183140251418</v>
+        <f>IFERROR(VLOOKUP(C94,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>27.32341110217217</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4636,8 +5129,8 @@
         <v>2025</v>
       </c>
       <c r="L95" s="11">
-        <f>IFERROR(VLOOKUP(C95,[1]LT!$L$2:$X$19,13,0),0)</f>
-        <v>20.623939679547597</v>
+        <f>IFERROR(VLOOKUP(C95,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>16.719829258828096</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4660,7 +5153,6 @@
         <v>2025</v>
       </c>
       <c r="L96" s="11">
-        <f>IFERROR(VLOOKUP(C96,[1]LT!$L$2:$X$19,13,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4684,8 +5176,8 @@
         <v>2025</v>
       </c>
       <c r="L97" s="11">
-        <f>IFERROR(VLOOKUP(C97,[1]LT!$L$2:$X$19,13,0),0)</f>
-        <v>9.5646100116414434</v>
+        <f>IFERROR(VLOOKUP(C97,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>12.497641509433961</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4711,8 +5203,8 @@
         <v>2025</v>
       </c>
       <c r="L98" s="11">
-        <f>IFERROR(VLOOKUP(C98,[1]LT!$L$2:$X$19,13,0),0)</f>
-        <v>6.0590062111801242</v>
+        <f>IFERROR(VLOOKUP(C98,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>4.787167120989726</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4738,8 +5230,8 @@
         <v>2025</v>
       </c>
       <c r="L99" s="11">
-        <f>IFERROR(VLOOKUP(C99,[1]LT!$L$2:$X$19,13,0),0)</f>
-        <v>7.0423476968796441</v>
+        <f>IFERROR(VLOOKUP(C99,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>8.9100000000000019</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4765,8 +5257,8 @@
         <v>2025</v>
       </c>
       <c r="L100" s="11">
-        <f>IFERROR(VLOOKUP(C100,[1]LT!$L$2:$X$19,13,0),0)</f>
-        <v>6.4564519580569222</v>
+        <f>IFERROR(VLOOKUP(C100,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>6.5954462289083136</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4789,7 +5281,7 @@
         <v>2025</v>
       </c>
       <c r="L101" s="11">
-        <f>IFERROR(VLOOKUP(C101,[1]LT!$L$2:$X$19,13,0),0)</f>
+        <f>IFERROR(VLOOKUP(C101,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4819,8 +5311,8 @@
         <v>2025</v>
       </c>
       <c r="L102" s="11">
-        <f>IFERROR(VLOOKUP(C102,[1]LT!$L$2:$X$19,13,0),0)</f>
-        <v>23.353756382202771</v>
+        <f>IFERROR(VLOOKUP(C102,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>24.492204899777288</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4849,8 +5341,8 @@
         <v>2025</v>
       </c>
       <c r="L103" s="11">
-        <f>IFERROR(VLOOKUP(C103,[1]LT!$L$2:$X$19,13,0),0)</f>
-        <v>29.72758620689655</v>
+        <f>IFERROR(VLOOKUP(C103,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>22.734932349323493</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4873,7 +5365,7 @@
         <v>2025</v>
       </c>
       <c r="L104" s="11">
-        <f>IFERROR(VLOOKUP(C104,[1]LT!$L$2:$X$19,13,0),0)</f>
+        <f>IFERROR(VLOOKUP(C104,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4897,7 +5389,7 @@
         <v>2025</v>
       </c>
       <c r="L105" s="11">
-        <f>IFERROR(VLOOKUP(C105,[1]LT!$L$2:$X$19,13,0),0)</f>
+        <f>IFERROR(VLOOKUP(C105,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4921,7 +5413,7 @@
         <v>2025</v>
       </c>
       <c r="L106" s="11">
-        <f>IFERROR(VLOOKUP(C106,[1]LT!$L$2:$X$19,13,0),0)</f>
+        <f>IFERROR(VLOOKUP(C106,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4948,7 +5440,7 @@
         <v>2025</v>
       </c>
       <c r="L107" s="11">
-        <f>IFERROR(VLOOKUP(C107,[1]LT!$L$2:$X$19,13,0),0)</f>
+        <f>IFERROR(VLOOKUP(C107,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4969,7 +5461,7 @@
         <v>2025</v>
       </c>
       <c r="L108" s="11">
-        <f>IFERROR(VLOOKUP(C108,[1]LT!$L$2:$X$19,13,0),0)</f>
+        <f>IFERROR(VLOOKUP(C108,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4990,7 +5482,7 @@
         <v>2025</v>
       </c>
       <c r="L109" s="11">
-        <f>IFERROR(VLOOKUP(C109,[1]LT!$L$2:$X$19,13,0),0)</f>
+        <f>IFERROR(VLOOKUP(C109,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5011,8 +5503,8 @@
         <v>2025</v>
       </c>
       <c r="L110" s="11">
-        <f>IFERROR(VLOOKUP(C110,[1]LT!$L$2:$X$19,13,0),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C110,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>32.78947368421052</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -5032,7 +5524,7 @@
         <v>2025</v>
       </c>
       <c r="L111" s="11">
-        <f>IFERROR(VLOOKUP(C111,[1]LT!$L$2:$X$19,13,0),0)</f>
+        <f>IFERROR(VLOOKUP(C111,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5059,8 +5551,8 @@
         <v>2025</v>
       </c>
       <c r="L112" s="11">
-        <f>IFERROR(VLOOKUP(C112,[1]LT!$L$2:$X$19,13,0),0)</f>
-        <v>5.4051094890510951</v>
+        <f>IFERROR(VLOOKUP(C112,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>1.4289283037721709</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5083,7 +5575,7 @@
         <v>2025</v>
       </c>
       <c r="L113" s="11">
-        <f>IFERROR(VLOOKUP(C113,[1]LT!$L$2:$X$19,13,0),0)</f>
+        <f>IFERROR(VLOOKUP(C113,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5107,7 +5599,8 @@
         <v>2025</v>
       </c>
       <c r="L114" s="11">
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C114,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>17.857807308970099</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5133,8 +5626,8 @@
         <v>2025</v>
       </c>
       <c r="L115" s="11">
-        <f>IFERROR(VLOOKUP(C115,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>26.550539744847885</v>
+        <f>IFERROR(VLOOKUP(C115,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>25.397995705082323</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5160,8 +5653,8 @@
         <v>2025</v>
       </c>
       <c r="L116" s="11">
-        <f>IFERROR(VLOOKUP(C116,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>28.747196738022424</v>
+        <f>IFERROR(VLOOKUP(C116,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>6.4586614173228352</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5187,8 +5680,8 @@
         <v>2025</v>
       </c>
       <c r="L117" s="11">
-        <f>IFERROR(VLOOKUP(C117,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>22.504118616144975</v>
+        <f>IFERROR(VLOOKUP(C117,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>27.32341110217217</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5217,8 +5710,8 @@
         <v>2025</v>
       </c>
       <c r="L118" s="11">
-        <f>IFERROR(VLOOKUP(C118,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>19.964817320703652</v>
+        <f>IFERROR(VLOOKUP(C118,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>16.719829258828096</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5241,7 +5734,6 @@
         <v>2025</v>
       </c>
       <c r="L119" s="11">
-        <f>IFERROR(VLOOKUP(C119,[1]LT!$L$2:$AA$19,16,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5268,8 +5760,8 @@
         <v>2025</v>
       </c>
       <c r="L120" s="11">
-        <f>IFERROR(VLOOKUP(C120,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>7.1377322229340168</v>
+        <f>IFERROR(VLOOKUP(C120,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>12.497641509433961</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5295,8 +5787,8 @@
         <v>2025</v>
       </c>
       <c r="L121" s="11">
-        <f>IFERROR(VLOOKUP(C121,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>6.7315357561547478</v>
+        <f>IFERROR(VLOOKUP(C121,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>4.787167120989726</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5322,8 +5814,8 @@
         <v>2025</v>
       </c>
       <c r="L122" s="11">
-        <f>IFERROR(VLOOKUP(C122,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>5.9129943502824851</v>
+        <f>IFERROR(VLOOKUP(C122,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>8.9100000000000019</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5349,8 +5841,8 @@
         <v>2025</v>
       </c>
       <c r="L123" s="11">
-        <f>IFERROR(VLOOKUP(C123,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>8.5189807592303683</v>
+        <f>IFERROR(VLOOKUP(C123,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>6.5954462289083136</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5373,7 +5865,7 @@
         <v>2025</v>
       </c>
       <c r="L124" s="11">
-        <f>IFERROR(VLOOKUP(C124,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C124,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5400,8 +5892,8 @@
         <v>2025</v>
       </c>
       <c r="L125" s="11">
-        <f>IFERROR(VLOOKUP(C125,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>30.025247971145173</v>
+        <f>IFERROR(VLOOKUP(C125,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>24.492204899777288</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5430,8 +5922,8 @@
         <v>2025</v>
       </c>
       <c r="L126" s="11">
-        <f>IFERROR(VLOOKUP(C126,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>29.155609167671898</v>
+        <f>IFERROR(VLOOKUP(C126,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>22.734932349323493</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5451,7 +5943,7 @@
         <v>2025</v>
       </c>
       <c r="L127" s="11">
-        <f>IFERROR(VLOOKUP(C127,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C127,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5472,7 +5964,7 @@
         <v>2025</v>
       </c>
       <c r="L128" s="11">
-        <f>IFERROR(VLOOKUP(C128,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C128,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5496,7 +5988,7 @@
         <v>2025</v>
       </c>
       <c r="L129" s="11">
-        <f>IFERROR(VLOOKUP(C129,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C129,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5523,7 +6015,7 @@
         <v>2025</v>
       </c>
       <c r="L130" s="11">
-        <f>IFERROR(VLOOKUP(C130,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C130,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5544,7 +6036,7 @@
         <v>2025</v>
       </c>
       <c r="L131" s="11">
-        <f>IFERROR(VLOOKUP(C131,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C131,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5565,7 +6057,7 @@
         <v>2025</v>
       </c>
       <c r="L132" s="11">
-        <f>IFERROR(VLOOKUP(C132,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C132,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5589,8 +6081,8 @@
         <v>2025</v>
       </c>
       <c r="L133" s="11">
-        <f>IFERROR(VLOOKUP(C133,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C133,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>32.78947368421052</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -5610,7 +6102,7 @@
         <v>2025</v>
       </c>
       <c r="L134" s="11">
-        <f>IFERROR(VLOOKUP(C134,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C134,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5637,7 +6129,8 @@
         <v>2025</v>
       </c>
       <c r="L135" s="11">
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C135,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>1.4289283037721709</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5657,6 +6150,7 @@
         <v>2025</v>
       </c>
       <c r="L136" s="11">
+        <f>IFERROR(VLOOKUP(C136,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5680,7 +6174,7 @@
         <v>2025</v>
       </c>
       <c r="L137" s="11">
-        <f>IFERROR(VLOOKUP(C136,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C137,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5707,8 +6201,8 @@
         <v>2025</v>
       </c>
       <c r="L138" s="11">
-        <f>IFERROR(VLOOKUP(C137,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C138,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>17.857807308970099</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5734,7 +6228,8 @@
         <v>2025</v>
       </c>
       <c r="L139" s="11">
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C139,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>25.397995705082323</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5763,8 +6258,8 @@
         <v>2025</v>
       </c>
       <c r="L140" s="11">
-        <f>IFERROR(VLOOKUP(C139,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>26.550539744847885</v>
+        <f>IFERROR(VLOOKUP(C140,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>6.4586614173228352</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5796,8 +6291,8 @@
         <v>2025</v>
       </c>
       <c r="L141" s="11">
-        <f>IFERROR(VLOOKUP(C140,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>28.747196738022424</v>
+        <f>IFERROR(VLOOKUP(C141,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>27.32341110217217</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5823,8 +6318,8 @@
         <v>2025</v>
       </c>
       <c r="L142" s="11">
-        <f>IFERROR(VLOOKUP(C141,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>22.504118616144975</v>
+        <f>IFERROR(VLOOKUP(C142,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>16.719829258828096</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5847,8 +6342,7 @@
         <v>2025</v>
       </c>
       <c r="L143" s="11">
-        <f>IFERROR(VLOOKUP(C142,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>19.964817320703652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5871,8 +6365,8 @@
         <v>2025</v>
       </c>
       <c r="L144" s="11">
-        <f>IFERROR(VLOOKUP(C143,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C144,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>12.497641509433961</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5898,8 +6392,8 @@
         <v>2025</v>
       </c>
       <c r="L145" s="11">
-        <f>IFERROR(VLOOKUP(C144,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>7.1377322229340168</v>
+        <f>IFERROR(VLOOKUP(C145,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>4.787167120989726</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5925,8 +6419,8 @@
         <v>2025</v>
       </c>
       <c r="L146" s="11">
-        <f>IFERROR(VLOOKUP(C145,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>6.7315357561547478</v>
+        <f>IFERROR(VLOOKUP(C146,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>8.9100000000000019</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5952,8 +6446,8 @@
         <v>2025</v>
       </c>
       <c r="L147" s="11">
-        <f>IFERROR(VLOOKUP(C146,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>5.9129943502824851</v>
+        <f>IFERROR(VLOOKUP(C147,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>6.5954462289083136</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5976,8 +6470,8 @@
         <v>2025</v>
       </c>
       <c r="L148" s="11">
-        <f>IFERROR(VLOOKUP(C147,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>8.5189807592303683</v>
+        <f>IFERROR(VLOOKUP(C148,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6006,8 +6500,8 @@
         <v>2025</v>
       </c>
       <c r="L149" s="11">
-        <f>IFERROR(VLOOKUP(C148,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C149,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>24.492204899777288</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6036,8 +6530,8 @@
         <v>2025</v>
       </c>
       <c r="L150" s="11">
-        <f>IFERROR(VLOOKUP(C149,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>30.025247971145173</v>
+        <f>IFERROR(VLOOKUP(C150,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>22.734932349323493</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6060,8 +6554,8 @@
         <v>2025</v>
       </c>
       <c r="L151" s="11">
-        <f>IFERROR(VLOOKUP(C150,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>29.155609167671898</v>
+        <f>IFERROR(VLOOKUP(C151,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6081,7 +6575,7 @@
         <v>2025</v>
       </c>
       <c r="L152" s="11">
-        <f>IFERROR(VLOOKUP(C151,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C152,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6108,7 +6602,7 @@
         <v>2025</v>
       </c>
       <c r="L153" s="11">
-        <f>IFERROR(VLOOKUP(C152,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C153,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6132,7 +6626,7 @@
         <v>2025</v>
       </c>
       <c r="L154" s="11">
-        <f>IFERROR(VLOOKUP(C153,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C154,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6153,7 +6647,7 @@
         <v>2025</v>
       </c>
       <c r="L155" s="11">
-        <f>IFERROR(VLOOKUP(C154,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C155,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6174,7 +6668,7 @@
         <v>2025</v>
       </c>
       <c r="L156" s="11">
-        <f>IFERROR(VLOOKUP(C155,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C156,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6195,8 +6689,8 @@
         <v>2025</v>
       </c>
       <c r="L157" s="11">
-        <f>IFERROR(VLOOKUP(C156,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C157,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>32.78947368421052</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -6219,7 +6713,7 @@
         <v>2025</v>
       </c>
       <c r="L158" s="11">
-        <f>IFERROR(VLOOKUP(C157,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C158,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6246,8 +6740,8 @@
         <v>2025</v>
       </c>
       <c r="L159" s="11">
-        <f>IFERROR(VLOOKUP(C158,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C159,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>1.4289283037721709</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6273,8 +6767,8 @@
         <v>2025</v>
       </c>
       <c r="L160" s="11">
-        <f>IFERROR(VLOOKUP(C159,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>4.9442290486131828</v>
+        <f>IFERROR(VLOOKUP(C160,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6297,7 +6791,7 @@
         <v>2025</v>
       </c>
       <c r="L161" s="11">
-        <f>IFERROR(VLOOKUP(C160,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C161,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6321,8 +6815,8 @@
         <v>2025</v>
       </c>
       <c r="L162" s="11">
-        <f>IFERROR(VLOOKUP(C161,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C162,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>17.857807308970099</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6351,7 +6845,8 @@
         <v>2025</v>
       </c>
       <c r="L163" s="11">
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C163,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>25.397995705082323</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6380,8 +6875,8 @@
         <v>2025</v>
       </c>
       <c r="L164" s="11">
-        <f>IFERROR(VLOOKUP(C163,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>26.550539744847885</v>
+        <f>IFERROR(VLOOKUP(C164,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>6.4586614173228352</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6404,8 +6899,8 @@
         <v>2025</v>
       </c>
       <c r="L165" s="11">
-        <f>IFERROR(VLOOKUP(C164,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>28.747196738022424</v>
+        <f>IFERROR(VLOOKUP(C165,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>27.32341110217217</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6434,8 +6929,8 @@
         <v>2025</v>
       </c>
       <c r="L166" s="11">
-        <f>IFERROR(VLOOKUP(C165,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>22.504118616144975</v>
+        <f>IFERROR(VLOOKUP(C166,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>16.719829258828096</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6458,8 +6953,7 @@
         <v>2025</v>
       </c>
       <c r="L167" s="11">
-        <f>IFERROR(VLOOKUP(C166,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>19.964817320703652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6485,8 +6979,8 @@
         <v>2025</v>
       </c>
       <c r="L168" s="11">
-        <f>IFERROR(VLOOKUP(C167,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C168,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>12.497641509433961</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6512,8 +7006,8 @@
         <v>2025</v>
       </c>
       <c r="L169" s="11">
-        <f>IFERROR(VLOOKUP(C168,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>7.1377322229340168</v>
+        <f>IFERROR(VLOOKUP(C169,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>4.787167120989726</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6539,8 +7033,8 @@
         <v>2025</v>
       </c>
       <c r="L170" s="11">
-        <f>IFERROR(VLOOKUP(C169,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>6.7315357561547478</v>
+        <f>IFERROR(VLOOKUP(C170,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>8.9100000000000019</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6566,8 +7060,8 @@
         <v>2025</v>
       </c>
       <c r="L171" s="11">
-        <f>IFERROR(VLOOKUP(C170,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>5.9129943502824851</v>
+        <f>IFERROR(VLOOKUP(C171,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>6.5954462289083136</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6590,8 +7084,8 @@
         <v>2025</v>
       </c>
       <c r="L172" s="11">
-        <f>IFERROR(VLOOKUP(C171,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>8.5189807592303683</v>
+        <f>IFERROR(VLOOKUP(C172,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6617,8 +7111,8 @@
         <v>2025</v>
       </c>
       <c r="L173" s="11">
-        <f>IFERROR(VLOOKUP(C172,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C173,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>24.492204899777288</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6644,8 +7138,8 @@
         <v>2025</v>
       </c>
       <c r="L174" s="11">
-        <f>IFERROR(VLOOKUP(C173,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>30.025247971145173</v>
+        <f>IFERROR(VLOOKUP(C174,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>22.734932349323493</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6668,8 +7162,8 @@
         <v>2025</v>
       </c>
       <c r="L175" s="11">
-        <f>IFERROR(VLOOKUP(C174,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>29.155609167671898</v>
+        <f>IFERROR(VLOOKUP(C175,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6692,7 +7186,7 @@
         <v>2025</v>
       </c>
       <c r="L176" s="11">
-        <f>IFERROR(VLOOKUP(C175,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C176,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6713,7 +7207,7 @@
         <v>2025</v>
       </c>
       <c r="L177" s="11">
-        <f>IFERROR(VLOOKUP(C176,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C177,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6737,7 +7231,7 @@
         <v>2025</v>
       </c>
       <c r="L178" s="11">
-        <f>IFERROR(VLOOKUP(C177,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C178,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6758,7 +7252,7 @@
         <v>2025</v>
       </c>
       <c r="L179" s="11">
-        <f>IFERROR(VLOOKUP(C178,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C179,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6779,7 +7273,7 @@
         <v>2025</v>
       </c>
       <c r="L180" s="11">
-        <f>IFERROR(VLOOKUP(C179,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C180,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6803,8 +7297,8 @@
         <v>2025</v>
       </c>
       <c r="L181" s="11">
-        <f>IFERROR(VLOOKUP(C180,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C181,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>32.78947368421052</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -6827,7 +7321,7 @@
         <v>2025</v>
       </c>
       <c r="L182" s="11">
-        <f>IFERROR(VLOOKUP(C181,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C182,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6857,8 +7351,8 @@
         <v>2025</v>
       </c>
       <c r="L183" s="11">
-        <f>IFERROR(VLOOKUP(C182,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C183,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>1.4289283037721709</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6878,8 +7372,8 @@
         <v>2025</v>
       </c>
       <c r="L184" s="11">
-        <f>IFERROR(VLOOKUP(C183,[1]LT!$L$2:$AA$19,16,0),0)</f>
-        <v>4.9442290486131828</v>
+        <f>IFERROR(VLOOKUP(C184,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6902,7 +7396,510 @@
         <v>2025</v>
       </c>
       <c r="L185" s="11">
-        <f>IFERROR(VLOOKUP(C184,[1]LT!$L$2:$AA$19,16,0),0)</f>
+        <f>IFERROR(VLOOKUP(C185,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J186" t="s">
+        <v>95</v>
+      </c>
+      <c r="K186">
+        <v>2025</v>
+      </c>
+      <c r="L186" s="11">
+        <f>IFERROR(VLOOKUP(C186,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>17.857807308970099</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J187" t="s">
+        <v>95</v>
+      </c>
+      <c r="K187">
+        <v>2025</v>
+      </c>
+      <c r="L187" s="11">
+        <f>IFERROR(VLOOKUP(C187,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>25.397995705082323</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J188" t="s">
+        <v>95</v>
+      </c>
+      <c r="K188">
+        <v>2025</v>
+      </c>
+      <c r="L188" s="11">
+        <f>IFERROR(VLOOKUP(C188,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>6.4586614173228352</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J189" t="s">
+        <v>95</v>
+      </c>
+      <c r="K189">
+        <v>2025</v>
+      </c>
+      <c r="L189" s="11">
+        <f>IFERROR(VLOOKUP(C189,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>27.32341110217217</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J190" t="s">
+        <v>95</v>
+      </c>
+      <c r="K190">
+        <v>2025</v>
+      </c>
+      <c r="L190" s="11">
+        <f>IFERROR(VLOOKUP(C190,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>16.719829258828096</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J191" t="s">
+        <v>95</v>
+      </c>
+      <c r="K191">
+        <v>2025</v>
+      </c>
+      <c r="L191" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J192" t="s">
+        <v>95</v>
+      </c>
+      <c r="K192">
+        <v>2025</v>
+      </c>
+      <c r="L192" s="11">
+        <f>IFERROR(VLOOKUP(C192,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>12.497641509433961</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J193" t="s">
+        <v>95</v>
+      </c>
+      <c r="K193">
+        <v>2025</v>
+      </c>
+      <c r="L193" s="11">
+        <f>IFERROR(VLOOKUP(C193,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>4.787167120989726</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J194" t="s">
+        <v>95</v>
+      </c>
+      <c r="K194">
+        <v>2025</v>
+      </c>
+      <c r="L194" s="11">
+        <f>IFERROR(VLOOKUP(C194,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>8.9100000000000019</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J195" t="s">
+        <v>95</v>
+      </c>
+      <c r="K195">
+        <v>2025</v>
+      </c>
+      <c r="L195" s="11">
+        <f>IFERROR(VLOOKUP(C195,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>6.5954462289083136</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J196" t="s">
+        <v>95</v>
+      </c>
+      <c r="K196">
+        <v>2025</v>
+      </c>
+      <c r="L196" s="11">
+        <f>IFERROR(VLOOKUP(C196,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J197" t="s">
+        <v>95</v>
+      </c>
+      <c r="K197">
+        <v>2025</v>
+      </c>
+      <c r="L197" s="11">
+        <f>IFERROR(VLOOKUP(C197,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>24.492204899777288</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J198" t="s">
+        <v>95</v>
+      </c>
+      <c r="K198">
+        <v>2025</v>
+      </c>
+      <c r="L198" s="11">
+        <f>IFERROR(VLOOKUP(C198,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>22.734932349323493</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J199" t="s">
+        <v>95</v>
+      </c>
+      <c r="K199">
+        <v>2025</v>
+      </c>
+      <c r="L199" s="11">
+        <f>IFERROR(VLOOKUP(C199,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J200" t="s">
+        <v>95</v>
+      </c>
+      <c r="K200">
+        <v>2025</v>
+      </c>
+      <c r="L200" s="11">
+        <f>IFERROR(VLOOKUP(C200,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J201" t="s">
+        <v>95</v>
+      </c>
+      <c r="K201">
+        <v>2025</v>
+      </c>
+      <c r="L201" s="11">
+        <f>IFERROR(VLOOKUP(C201,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202" s="8">
+        <v>220</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J202" t="s">
+        <v>95</v>
+      </c>
+      <c r="K202">
+        <v>2025</v>
+      </c>
+      <c r="L202" s="11">
+        <f>IFERROR(VLOOKUP(C202,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J203" t="s">
+        <v>95</v>
+      </c>
+      <c r="K203">
+        <v>2025</v>
+      </c>
+      <c r="L203" s="11">
+        <f>IFERROR(VLOOKUP(C203,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J204" t="s">
+        <v>95</v>
+      </c>
+      <c r="K204">
+        <v>2025</v>
+      </c>
+      <c r="L204" s="11">
+        <f>IFERROR(VLOOKUP(C204,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J205" t="s">
+        <v>95</v>
+      </c>
+      <c r="K205">
+        <v>2025</v>
+      </c>
+      <c r="L205" s="11">
+        <f>IFERROR(VLOOKUP(C205,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>32.78947368421052</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J206" t="s">
+        <v>95</v>
+      </c>
+      <c r="K206">
+        <v>2025</v>
+      </c>
+      <c r="L206" s="11">
+        <f>IFERROR(VLOOKUP(C206,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J207" t="s">
+        <v>95</v>
+      </c>
+      <c r="K207">
+        <v>2025</v>
+      </c>
+      <c r="L207" s="11">
+        <f>IFERROR(VLOOKUP(C207,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>1.4289283037721709</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J208" t="s">
+        <v>95</v>
+      </c>
+      <c r="K208">
+        <v>2025</v>
+      </c>
+      <c r="L208" s="11">
+        <f>IFERROR(VLOOKUP(C208,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J209" t="s">
+        <v>95</v>
+      </c>
+      <c r="K209">
+        <v>2025</v>
+      </c>
+      <c r="L209" s="11">
+        <f>IFERROR(VLOOKUP(C209,[1]LT!$L$2:$AJ$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>

--- a/frota.xlsx
+++ b/frota.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\Gerenciamento de frota de veículos v6.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E212863-F06F-48FA-8639-4424F7130D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822A56BB-D4C7-41E3-BEA1-4966D402A36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A9E33E62-5F44-40B8-AD32-7E71F3A7A556}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A9E33E62-5F44-40B8-AD32-7E71F3A7A556}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2251,17 +2251,17 @@
       <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -2750,25 +2750,25 @@
   <dimension ref="A1:L209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="11"/>
-    <col min="7" max="7" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="11"/>
+    <col min="7" max="7" width="10.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="11"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
     <col min="12" max="12" width="10" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>68</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>57</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>77</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>87</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>17.857807308970099</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>25.397995705082323</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>6.4586614173228352</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>27.32341110217217</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>16.719829258828096</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>12.497641509433961</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>4.787167120989726</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>8.9100000000000019</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>6.5954462289083136</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>24</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>24.492204899777288</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>22.734932349323493</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>24</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>52</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>57</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>6</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>32.78947368421052</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>77</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>87</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>1.4289283037721709</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>17</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>17.857807308970099</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>6</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>25.397995705082323</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>6</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>6.4586614173228352</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>6</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>27.32341110217217</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>6</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>16.719829258828096</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>42</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>20</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>12.497641509433961</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>17</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>4.787167120989726</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>17</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>8.9100000000000019</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>17</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>6.5954462289083136</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>24</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>36</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>24.492204899777288</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>36</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>22.734932349323493</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>24</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>46</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>52</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>46</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>6</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>32.78947368421052</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>77</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>87</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>1.4289283037721709</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>17</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>17.857807308970099</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>6</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>25.397995705082323</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>6</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>6.4586614173228352</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>6</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>27.32341110217217</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>6</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>16.719829258828096</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>42</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>20</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>12.497641509433961</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>17</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>4.787167120989726</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>17</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>8.9100000000000019</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>17</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>6.5954462289083136</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>24</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>36</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>24.492204899777288</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>36</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>22.734932349323493</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>24</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>46</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>52</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>17</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>57</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>46</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>6</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>32.78947368421052</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>77</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>87</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>1.4289283037721709</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>46</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>17</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>17.857807308970099</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>6</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>25.397995705082323</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>6</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>6.4586614173228352</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>6</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>27.32341110217217</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>6</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>16.719829258828096</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>42</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>20</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>12.497641509433961</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>17</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>4.787167120989726</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>17</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>8.9100000000000019</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>17</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>6.5954462289083136</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>24</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>36</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>24.492204899777288</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>36</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>22.734932349323493</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>24</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>46</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>52</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>17</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>57</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>46</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>6</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>32.78947368421052</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>77</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>87</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>1.4289283037721709</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>46</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>17</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>17.857807308970099</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>6</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>25.397995705082323</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>6</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>6.4586614173228352</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>6</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>27.32341110217217</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>6</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>16.719829258828096</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>42</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>20</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>12.497641509433961</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>17</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>4.787167120989726</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>17</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>8.9100000000000019</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>17</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>6.5954462289083136</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>24</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>36</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>24.492204899777288</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>36</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>22.734932349323493</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>24</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>46</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>52</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>17</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>57</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>46</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>6</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>32.78947368421052</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>77</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>87</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>1.4289283037721709</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>46</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>46</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>17</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>17.857807308970099</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>6</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>25.397995705082323</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>6</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>6.4586614173228352</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>6</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>27.32341110217217</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>6</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>16.719829258828096</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>42</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>20</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>12.497641509433961</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>17</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>4.787167120989726</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>17</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>8.9100000000000019</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>17</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>6.5954462289083136</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>24</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>36</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>24.492204899777288</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>36</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>22.734932349323493</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>24</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>46</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>52</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>17</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>57</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>46</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>6</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>32.78947368421052</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>77</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>87</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>1.4289283037721709</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>46</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>46</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>17</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>17.857807308970099</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>6</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>25.397995705082323</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>6</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>6.4586614173228352</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>6</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>27.32341110217217</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>6</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>16.719829258828096</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>42</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>20</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>12.497641509433961</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>17</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>4.787167120989726</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>17</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>8.9100000000000019</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>17</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>6.5954462289083136</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>24</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>36</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>24.492204899777288</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>36</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>22.734932349323493</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>24</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>46</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>52</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>17</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>57</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>46</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>6</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>32.78947368421052</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>77</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
         <v>87</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>1.4289283037721709</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>46</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>46</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>17</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>17.857807308970099</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>6</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>25.397995705082323</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>6</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>6.4586614173228352</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>6</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>27.32341110217217</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>6</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>16.719829258828096</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>42</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>20</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>12.497641509433961</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>17</v>
       </c>
@@ -7555,6 +7555,9 @@
       </c>
       <c r="C193" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="H193" s="11">
+        <v>194.1</v>
       </c>
       <c r="J193" t="s">
         <v>95</v>
@@ -7567,7 +7570,7 @@
         <v>4.787167120989726</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>17</v>
       </c>
@@ -7588,7 +7591,7 @@
         <v>8.9100000000000019</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>17</v>
       </c>
@@ -7609,7 +7612,7 @@
         <v>6.5954462289083136</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>24</v>
       </c>
@@ -7630,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>36</v>
       </c>
@@ -7651,7 +7654,7 @@
         <v>24.492204899777288</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>36</v>
       </c>
@@ -7672,7 +7675,7 @@
         <v>22.734932349323493</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>24</v>
       </c>
@@ -7693,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>46</v>
       </c>
@@ -7714,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>52</v>
       </c>
@@ -7735,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
         <v>17</v>
       </c>
@@ -7756,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>57</v>
       </c>
@@ -7777,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>46</v>
       </c>
@@ -7798,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>6</v>
       </c>
@@ -7819,7 +7822,7 @@
         <v>32.78947368421052</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
         <v>77</v>
       </c>
@@ -7840,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
         <v>87</v>
       </c>
@@ -7861,7 +7864,7 @@
         <v>1.4289283037721709</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>46</v>
       </c>
@@ -7882,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>46</v>
       </c>
@@ -7891,6 +7894,9 @@
       </c>
       <c r="C209" s="9" t="s">
         <v>91</v>
+      </c>
+      <c r="G209" s="11">
+        <v>1735.63</v>
       </c>
       <c r="J209" t="s">
         <v>95</v>

--- a/frota.xlsx
+++ b/frota.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\Gerenciamento de frota de veículos v6.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B180DA-5B92-4618-83D6-57A32996B480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7632F77-6850-4C9E-81EE-58D6028C3259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A9E33E62-5F44-40B8-AD32-7E71F3A7A556}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Dados" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="102">
   <si>
     <t>Fabricante</t>
   </si>
@@ -337,6 +335,15 @@
   </si>
   <si>
     <t>Cartão</t>
+  </si>
+  <si>
+    <t>89-07-SA</t>
+  </si>
+  <si>
+    <t>AV-64-OT</t>
+  </si>
+  <si>
+    <t>BG-99-DV</t>
   </si>
 </sst>
 </file>
@@ -379,12 +386,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -486,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -522,18 +535,13 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,1419 +557,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="data"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Fev"/>
-      <sheetName val="Março"/>
-      <sheetName val="Abril"/>
-      <sheetName val="Maio"/>
-      <sheetName val="Junho"/>
-      <sheetName val="Julho"/>
-      <sheetName val="Agosto"/>
-      <sheetName val="Setembro"/>
-      <sheetName val="Dados"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="FimSemana"/>
-      <sheetName val="KMS"/>
-      <sheetName val="LT"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14">
-        <row r="2">
-          <cell r="L2" t="str">
-            <v>05-XE-51</v>
-          </cell>
-          <cell r="M2">
-            <v>57.2</v>
-          </cell>
-          <cell r="N2">
-            <v>4003</v>
-          </cell>
-          <cell r="O2">
-            <v>1.4289283037721709</v>
-          </cell>
-          <cell r="P2">
-            <v>114.08</v>
-          </cell>
-          <cell r="Q2">
-            <v>3959</v>
-          </cell>
-          <cell r="R2">
-            <v>2.8815357413488254</v>
-          </cell>
-          <cell r="S2">
-            <v>222.15</v>
-          </cell>
-          <cell r="T2">
-            <v>2772</v>
-          </cell>
-          <cell r="U2">
-            <v>8.0140692640692635</v>
-          </cell>
-          <cell r="V2">
-            <v>222.15</v>
-          </cell>
-          <cell r="W2">
-            <v>4110</v>
-          </cell>
-          <cell r="X2">
-            <v>5.4051094890510951</v>
-          </cell>
-          <cell r="Y2">
-            <v>165.78000000000003</v>
-          </cell>
-          <cell r="Z2">
-            <v>3353</v>
-          </cell>
-          <cell r="AA2">
-            <v>4.9442290486131828</v>
-          </cell>
-          <cell r="AB2">
-            <v>260.66000000000003</v>
-          </cell>
-          <cell r="AC2">
-            <v>4229</v>
-          </cell>
-          <cell r="AD2">
-            <v>6.163632064317806</v>
-          </cell>
-          <cell r="AE2">
-            <v>262.85000000000002</v>
-          </cell>
-          <cell r="AF2">
-            <v>4136</v>
-          </cell>
-          <cell r="AG2">
-            <v>6.3551740812379114</v>
-          </cell>
-          <cell r="AH2">
-            <v>223.82</v>
-          </cell>
-          <cell r="AI2">
-            <v>5251</v>
-          </cell>
-          <cell r="AJ2">
-            <v>4.2624262045324697</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="L3" t="str">
-            <v>25-57-HM</v>
-          </cell>
-          <cell r="M3">
-            <v>268.76</v>
-          </cell>
-          <cell r="N3">
-            <v>1505</v>
-          </cell>
-          <cell r="O3">
-            <v>17.857807308970099</v>
-          </cell>
-          <cell r="P3">
-            <v>296.76</v>
-          </cell>
-          <cell r="Q3">
-            <v>796</v>
-          </cell>
-          <cell r="R3">
-            <v>37.281407035175882</v>
-          </cell>
-          <cell r="S3">
-            <v>797.08000000000015</v>
-          </cell>
-          <cell r="T3">
-            <v>294</v>
-          </cell>
-          <cell r="U3">
-            <v>271.11564625850349</v>
-          </cell>
-          <cell r="V3">
-            <v>797.08000000000015</v>
-          </cell>
-          <cell r="W3">
-            <v>1525</v>
-          </cell>
-          <cell r="X3">
-            <v>52.267540983606565</v>
-          </cell>
-          <cell r="Y3">
-            <v>282.48</v>
-          </cell>
-          <cell r="Z3">
-            <v>23</v>
-          </cell>
-          <cell r="AA3">
-            <v>1228.1739130434783</v>
-          </cell>
-          <cell r="AB3">
-            <v>1094.29</v>
-          </cell>
-          <cell r="AC3">
-            <v>1593</v>
-          </cell>
-          <cell r="AD3">
-            <v>68.693659761456374</v>
-          </cell>
-          <cell r="AE3">
-            <v>0</v>
-          </cell>
-          <cell r="AF3">
-            <v>554</v>
-          </cell>
-          <cell r="AG3">
-            <v>0</v>
-          </cell>
-          <cell r="AH3">
-            <v>0</v>
-          </cell>
-          <cell r="AI3">
-            <v>24</v>
-          </cell>
-          <cell r="AJ3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="L4" t="str">
-            <v>29-87-OQ</v>
-          </cell>
-          <cell r="M4">
-            <v>430.87</v>
-          </cell>
-          <cell r="N4">
-            <v>2577</v>
-          </cell>
-          <cell r="O4">
-            <v>16.719829258828096</v>
-          </cell>
-          <cell r="P4">
-            <v>452.09999999999997</v>
-          </cell>
-          <cell r="Q4">
-            <v>2609</v>
-          </cell>
-          <cell r="R4">
-            <v>17.328478344193176</v>
-          </cell>
-          <cell r="S4">
-            <v>437.64</v>
-          </cell>
-          <cell r="T4">
-            <v>2517</v>
-          </cell>
-          <cell r="U4">
-            <v>17.387365911799758</v>
-          </cell>
-          <cell r="V4">
-            <v>437.64</v>
-          </cell>
-          <cell r="W4">
-            <v>2122</v>
-          </cell>
-          <cell r="X4">
-            <v>20.623939679547597</v>
-          </cell>
-          <cell r="Y4">
-            <v>442.62</v>
-          </cell>
-          <cell r="Z4">
-            <v>2217</v>
-          </cell>
-          <cell r="AA4">
-            <v>19.964817320703652</v>
-          </cell>
-          <cell r="AB4">
-            <v>541.36999999999989</v>
-          </cell>
-          <cell r="AC4">
-            <v>2683</v>
-          </cell>
-          <cell r="AD4">
-            <v>20.177786060380168</v>
-          </cell>
-          <cell r="AE4">
-            <v>604.45000000000005</v>
-          </cell>
-          <cell r="AF4">
-            <v>3465</v>
-          </cell>
-          <cell r="AG4">
-            <v>17.444444444444446</v>
-          </cell>
-          <cell r="AH4">
-            <v>452.85</v>
-          </cell>
-          <cell r="AI4">
-            <v>2005</v>
-          </cell>
-          <cell r="AJ4">
-            <v>22.586034912718205</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5" t="str">
-            <v>29-88-OQ</v>
-          </cell>
-          <cell r="M5">
-            <v>87.22</v>
-          </cell>
-          <cell r="N5">
-            <v>266</v>
-          </cell>
-          <cell r="O5">
-            <v>32.78947368421052</v>
-          </cell>
-          <cell r="P5">
-            <v>98.47</v>
-          </cell>
-          <cell r="Q5">
-            <v>44</v>
-          </cell>
-          <cell r="R5">
-            <v>223.79545454545453</v>
-          </cell>
-          <cell r="T5">
-            <v>713</v>
-          </cell>
-          <cell r="U5">
-            <v>0</v>
-          </cell>
-          <cell r="W5">
-            <v>0</v>
-          </cell>
-          <cell r="X5">
-            <v>0</v>
-          </cell>
-          <cell r="Y5">
-            <v>62.33</v>
-          </cell>
-          <cell r="Z5">
-            <v>0</v>
-          </cell>
-          <cell r="AA5">
-            <v>0</v>
-          </cell>
-          <cell r="AB5">
-            <v>71.28</v>
-          </cell>
-          <cell r="AC5">
-            <v>0</v>
-          </cell>
-          <cell r="AD5">
-            <v>0</v>
-          </cell>
-          <cell r="AE5">
-            <v>784.23</v>
-          </cell>
-          <cell r="AF5">
-            <v>0</v>
-          </cell>
-          <cell r="AG5">
-            <v>0</v>
-          </cell>
-          <cell r="AH5">
-            <v>421.45</v>
-          </cell>
-          <cell r="AI5">
-            <v>0</v>
-          </cell>
-          <cell r="AJ5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6" t="str">
-            <v>38-21-ST</v>
-          </cell>
-          <cell r="M6">
-            <v>105.97999999999999</v>
-          </cell>
-          <cell r="N6">
-            <v>848</v>
-          </cell>
-          <cell r="O6">
-            <v>12.497641509433961</v>
-          </cell>
-          <cell r="P6">
-            <v>98.59</v>
-          </cell>
-          <cell r="Q6">
-            <v>979</v>
-          </cell>
-          <cell r="R6">
-            <v>10.070480081716038</v>
-          </cell>
-          <cell r="S6">
-            <v>164.32</v>
-          </cell>
-          <cell r="T6">
-            <v>1152</v>
-          </cell>
-          <cell r="U6">
-            <v>14.263888888888888</v>
-          </cell>
-          <cell r="V6">
-            <v>164.32</v>
-          </cell>
-          <cell r="W6">
-            <v>1718</v>
-          </cell>
-          <cell r="X6">
-            <v>9.5646100116414434</v>
-          </cell>
-          <cell r="Y6">
-            <v>111.42</v>
-          </cell>
-          <cell r="Z6">
-            <v>1561</v>
-          </cell>
-          <cell r="AA6">
-            <v>7.1377322229340168</v>
-          </cell>
-          <cell r="AB6">
-            <v>163.87</v>
-          </cell>
-          <cell r="AC6">
-            <v>1504</v>
-          </cell>
-          <cell r="AD6">
-            <v>10.89561170212766</v>
-          </cell>
-          <cell r="AE6">
-            <v>150.74</v>
-          </cell>
-          <cell r="AF6">
-            <v>542</v>
-          </cell>
-          <cell r="AG6">
-            <v>27.811808118081181</v>
-          </cell>
-          <cell r="AH6">
-            <v>59.9</v>
-          </cell>
-          <cell r="AI6">
-            <v>1103</v>
-          </cell>
-          <cell r="AJ6">
-            <v>5.4306436990027196</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7" t="str">
-            <v>71-ND-88</v>
-          </cell>
-          <cell r="M7">
-            <v>262.48</v>
-          </cell>
-          <cell r="N7">
-            <v>4064</v>
-          </cell>
-          <cell r="O7">
-            <v>6.4586614173228352</v>
-          </cell>
-          <cell r="P7">
-            <v>48.19</v>
-          </cell>
-          <cell r="Q7">
-            <v>1328</v>
-          </cell>
-          <cell r="R7">
-            <v>3.6287650602409633</v>
-          </cell>
-          <cell r="S7">
-            <v>36.11</v>
-          </cell>
-          <cell r="T7">
-            <v>0</v>
-          </cell>
-          <cell r="U7">
-            <v>0</v>
-          </cell>
-          <cell r="V7">
-            <v>36.11</v>
-          </cell>
-          <cell r="W7">
-            <v>0</v>
-          </cell>
-          <cell r="X7">
-            <v>0</v>
-          </cell>
-          <cell r="Y7">
-            <v>564.02</v>
-          </cell>
-          <cell r="Z7">
-            <v>1962</v>
-          </cell>
-          <cell r="AA7">
-            <v>28.747196738022424</v>
-          </cell>
-          <cell r="AB7">
-            <v>395.50999999999993</v>
-          </cell>
-          <cell r="AC7">
-            <v>1794</v>
-          </cell>
-          <cell r="AD7">
-            <v>22.046265328874021</v>
-          </cell>
-          <cell r="AE7">
-            <v>393.82</v>
-          </cell>
-          <cell r="AF7">
-            <v>1615</v>
-          </cell>
-          <cell r="AG7">
-            <v>24.38513931888545</v>
-          </cell>
-          <cell r="AH7">
-            <v>780.37000000000012</v>
-          </cell>
-          <cell r="AI7">
-            <v>3547</v>
-          </cell>
-          <cell r="AJ7">
-            <v>22.000845785170569</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8" t="str">
-            <v>71-ND-89</v>
-          </cell>
-          <cell r="M8">
-            <v>709.62</v>
-          </cell>
-          <cell r="N8">
-            <v>2794</v>
-          </cell>
-          <cell r="O8">
-            <v>25.397995705082323</v>
-          </cell>
-          <cell r="P8">
-            <v>546.21</v>
-          </cell>
-          <cell r="Q8">
-            <v>2846</v>
-          </cell>
-          <cell r="R8">
-            <v>19.192199578355588</v>
-          </cell>
-          <cell r="S8">
-            <v>805.38000000000011</v>
-          </cell>
-          <cell r="T8">
-            <v>2334</v>
-          </cell>
-          <cell r="U8">
-            <v>34.506426735218518</v>
-          </cell>
-          <cell r="V8">
-            <v>805.38000000000011</v>
-          </cell>
-          <cell r="W8">
-            <v>3152</v>
-          </cell>
-          <cell r="X8">
-            <v>25.551395939086298</v>
-          </cell>
-          <cell r="Y8">
-            <v>270.54999999999995</v>
-          </cell>
-          <cell r="Z8">
-            <v>1019</v>
-          </cell>
-          <cell r="AA8">
-            <v>26.550539744847885</v>
-          </cell>
-          <cell r="AB8">
-            <v>560.47</v>
-          </cell>
-          <cell r="AC8">
-            <v>1937</v>
-          </cell>
-          <cell r="AD8">
-            <v>28.934950955085188</v>
-          </cell>
-          <cell r="AE8">
-            <v>251.68</v>
-          </cell>
-          <cell r="AF8">
-            <v>782</v>
-          </cell>
-          <cell r="AG8">
-            <v>32.184143222506393</v>
-          </cell>
-          <cell r="AH8">
-            <v>181</v>
-          </cell>
-          <cell r="AI8">
-            <v>621</v>
-          </cell>
-          <cell r="AJ8">
-            <v>29.146537842190018</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="L9" t="str">
-            <v>76-BQ-20</v>
-          </cell>
-          <cell r="M9">
-            <v>679.2600000000001</v>
-          </cell>
-          <cell r="N9">
-            <v>2486</v>
-          </cell>
-          <cell r="O9">
-            <v>27.32341110217217</v>
-          </cell>
-          <cell r="P9">
-            <v>754.66</v>
-          </cell>
-          <cell r="Q9">
-            <v>3159</v>
-          </cell>
-          <cell r="R9">
-            <v>23.889205444761</v>
-          </cell>
-          <cell r="S9">
-            <v>916.93000000000006</v>
-          </cell>
-          <cell r="T9">
-            <v>3611</v>
-          </cell>
-          <cell r="U9">
-            <v>25.392689005815566</v>
-          </cell>
-          <cell r="V9">
-            <v>916.93000000000006</v>
-          </cell>
-          <cell r="W9">
-            <v>4057</v>
-          </cell>
-          <cell r="X9">
-            <v>22.601183140251418</v>
-          </cell>
-          <cell r="Y9">
-            <v>409.8</v>
-          </cell>
-          <cell r="Z9">
-            <v>1821</v>
-          </cell>
-          <cell r="AA9">
-            <v>22.504118616144975</v>
-          </cell>
-          <cell r="AB9">
-            <v>823.15999999999985</v>
-          </cell>
-          <cell r="AC9">
-            <v>3648</v>
-          </cell>
-          <cell r="AD9">
-            <v>22.564692982456137</v>
-          </cell>
-          <cell r="AE9">
-            <v>100.28</v>
-          </cell>
-          <cell r="AF9">
-            <v>441</v>
-          </cell>
-          <cell r="AG9">
-            <v>22.73922902494331</v>
-          </cell>
-          <cell r="AH9">
-            <v>0</v>
-          </cell>
-          <cell r="AI9">
-            <v>9</v>
-          </cell>
-          <cell r="AJ9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="L10" t="str">
-            <v>77-52-HR</v>
-          </cell>
-          <cell r="N10">
-            <v>0</v>
-          </cell>
-          <cell r="O10">
-            <v>0</v>
-          </cell>
-          <cell r="P10">
-            <v>67.430000000000007</v>
-          </cell>
-          <cell r="Q10">
-            <v>0</v>
-          </cell>
-          <cell r="R10">
-            <v>0</v>
-          </cell>
-          <cell r="S10">
-            <v>552.68999999999994</v>
-          </cell>
-          <cell r="T10">
-            <v>0</v>
-          </cell>
-          <cell r="U10">
-            <v>0</v>
-          </cell>
-          <cell r="V10">
-            <v>552.68999999999994</v>
-          </cell>
-          <cell r="W10">
-            <v>0</v>
-          </cell>
-          <cell r="X10">
-            <v>0</v>
-          </cell>
-          <cell r="Z10">
-            <v>0</v>
-          </cell>
-          <cell r="AA10">
-            <v>0</v>
-          </cell>
-          <cell r="AB10">
-            <v>120.97</v>
-          </cell>
-          <cell r="AC10">
-            <v>0</v>
-          </cell>
-          <cell r="AD10">
-            <v>0</v>
-          </cell>
-          <cell r="AE10">
-            <v>98.76</v>
-          </cell>
-          <cell r="AF10">
-            <v>0</v>
-          </cell>
-          <cell r="AG10">
-            <v>0</v>
-          </cell>
-          <cell r="AH10">
-            <v>242.38000000000002</v>
-          </cell>
-          <cell r="AI10">
-            <v>0</v>
-          </cell>
-          <cell r="AJ10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="L11" t="str">
-            <v>89-07-SA</v>
-          </cell>
-          <cell r="M11">
-            <v>960.8599999999999</v>
-          </cell>
-          <cell r="N11">
-            <v>0</v>
-          </cell>
-          <cell r="O11">
-            <v>0</v>
-          </cell>
-          <cell r="P11">
-            <v>644.04</v>
-          </cell>
-          <cell r="Q11">
-            <v>0</v>
-          </cell>
-          <cell r="R11">
-            <v>0</v>
-          </cell>
-          <cell r="S11">
-            <v>697.1400000000001</v>
-          </cell>
-          <cell r="T11">
-            <v>0</v>
-          </cell>
-          <cell r="U11">
-            <v>0</v>
-          </cell>
-          <cell r="V11">
-            <v>697.1400000000001</v>
-          </cell>
-          <cell r="W11">
-            <v>0</v>
-          </cell>
-          <cell r="X11">
-            <v>0</v>
-          </cell>
-          <cell r="Y11">
-            <v>249.97</v>
-          </cell>
-          <cell r="Z11">
-            <v>0</v>
-          </cell>
-          <cell r="AA11">
-            <v>0</v>
-          </cell>
-          <cell r="AB11">
-            <v>260.48</v>
-          </cell>
-          <cell r="AC11">
-            <v>0</v>
-          </cell>
-          <cell r="AD11">
-            <v>0</v>
-          </cell>
-          <cell r="AE11">
-            <v>727.51</v>
-          </cell>
-          <cell r="AF11">
-            <v>0</v>
-          </cell>
-          <cell r="AG11">
-            <v>0</v>
-          </cell>
-          <cell r="AH11">
-            <v>623.41</v>
-          </cell>
-          <cell r="AI11">
-            <v>0</v>
-          </cell>
-          <cell r="AJ11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="L12" t="str">
-            <v>AV-64-OT</v>
-          </cell>
-          <cell r="N12">
-            <v>0</v>
-          </cell>
-          <cell r="O12">
-            <v>0</v>
-          </cell>
-          <cell r="P12">
-            <v>213.86999999999998</v>
-          </cell>
-          <cell r="Q12">
-            <v>0</v>
-          </cell>
-          <cell r="R12">
-            <v>0</v>
-          </cell>
-          <cell r="S12">
-            <v>250.56</v>
-          </cell>
-          <cell r="T12">
-            <v>0</v>
-          </cell>
-          <cell r="U12">
-            <v>0</v>
-          </cell>
-          <cell r="V12">
-            <v>250.56</v>
-          </cell>
-          <cell r="W12">
-            <v>0</v>
-          </cell>
-          <cell r="X12">
-            <v>0</v>
-          </cell>
-          <cell r="Y12">
-            <v>176.11999999999998</v>
-          </cell>
-          <cell r="Z12">
-            <v>0</v>
-          </cell>
-          <cell r="AA12">
-            <v>0</v>
-          </cell>
-          <cell r="AB12">
-            <v>226.49</v>
-          </cell>
-          <cell r="AC12">
-            <v>0</v>
-          </cell>
-          <cell r="AD12">
-            <v>0</v>
-          </cell>
-          <cell r="AE12">
-            <v>196.61</v>
-          </cell>
-          <cell r="AF12">
-            <v>0</v>
-          </cell>
-          <cell r="AG12">
-            <v>0</v>
-          </cell>
-          <cell r="AH12">
-            <v>239.92999999999998</v>
-          </cell>
-          <cell r="AI12">
-            <v>0</v>
-          </cell>
-          <cell r="AJ12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="L13" t="str">
-            <v>BG-02-TB</v>
-          </cell>
-          <cell r="M13">
-            <v>228.3</v>
-          </cell>
-          <cell r="N13">
-            <v>4769</v>
-          </cell>
-          <cell r="O13">
-            <v>4.787167120989726</v>
-          </cell>
-          <cell r="P13">
-            <v>182.55</v>
-          </cell>
-          <cell r="Q13">
-            <v>4060</v>
-          </cell>
-          <cell r="R13">
-            <v>4.4963054187192117</v>
-          </cell>
-          <cell r="S13">
-            <v>234.12</v>
-          </cell>
-          <cell r="T13">
-            <v>4116</v>
-          </cell>
-          <cell r="U13">
-            <v>5.6880466472303208</v>
-          </cell>
-          <cell r="V13">
-            <v>234.12</v>
-          </cell>
-          <cell r="W13">
-            <v>3864</v>
-          </cell>
-          <cell r="X13">
-            <v>6.0590062111801242</v>
-          </cell>
-          <cell r="Y13">
-            <v>229.68</v>
-          </cell>
-          <cell r="Z13">
-            <v>3412</v>
-          </cell>
-          <cell r="AA13">
-            <v>6.7315357561547478</v>
-          </cell>
-          <cell r="AB13">
-            <v>135.79</v>
-          </cell>
-          <cell r="AC13">
-            <v>2400</v>
-          </cell>
-          <cell r="AD13">
-            <v>5.6579166666666669</v>
-          </cell>
-          <cell r="AE13">
-            <v>110.66</v>
-          </cell>
-          <cell r="AF13">
-            <v>2293</v>
-          </cell>
-          <cell r="AG13">
-            <v>4.825992150021805</v>
-          </cell>
-          <cell r="AH13">
-            <v>208.38</v>
-          </cell>
-          <cell r="AI13">
-            <v>3743</v>
-          </cell>
-          <cell r="AJ13">
-            <v>5.5671920919048894</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="L14" t="str">
-            <v>BG-03-SZ</v>
-          </cell>
-          <cell r="M14">
-            <v>240.57000000000002</v>
-          </cell>
-          <cell r="N14">
-            <v>2700</v>
-          </cell>
-          <cell r="O14">
-            <v>8.9100000000000019</v>
-          </cell>
-          <cell r="P14">
-            <v>299.88000000000005</v>
-          </cell>
-          <cell r="Q14">
-            <v>3887</v>
-          </cell>
-          <cell r="R14">
-            <v>7.7149472600977624</v>
-          </cell>
-          <cell r="S14">
-            <v>284.37000000000006</v>
-          </cell>
-          <cell r="T14">
-            <v>4915</v>
-          </cell>
-          <cell r="U14">
-            <v>5.7857578840284853</v>
-          </cell>
-          <cell r="V14">
-            <v>284.37000000000006</v>
-          </cell>
-          <cell r="W14">
-            <v>4038</v>
-          </cell>
-          <cell r="X14">
-            <v>7.0423476968796441</v>
-          </cell>
-          <cell r="Y14">
-            <v>209.32</v>
-          </cell>
-          <cell r="Z14">
-            <v>3540</v>
-          </cell>
-          <cell r="AA14">
-            <v>5.9129943502824851</v>
-          </cell>
-          <cell r="AB14">
-            <v>144.16</v>
-          </cell>
-          <cell r="AC14">
-            <v>3594</v>
-          </cell>
-          <cell r="AD14">
-            <v>4.011129660545353</v>
-          </cell>
-          <cell r="AE14">
-            <v>303.23</v>
-          </cell>
-          <cell r="AF14">
-            <v>4488</v>
-          </cell>
-          <cell r="AG14">
-            <v>6.756461675579323</v>
-          </cell>
-          <cell r="AH14">
-            <v>318.75</v>
-          </cell>
-          <cell r="AI14">
-            <v>4411</v>
-          </cell>
-          <cell r="AJ14">
-            <v>7.2262525504420765</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="L15" t="str">
-            <v>BG-99-DV</v>
-          </cell>
-          <cell r="N15">
-            <v>0</v>
-          </cell>
-          <cell r="O15">
-            <v>0</v>
-          </cell>
-          <cell r="P15">
-            <v>222.84000000000003</v>
-          </cell>
-          <cell r="Q15">
-            <v>0</v>
-          </cell>
-          <cell r="R15">
-            <v>0</v>
-          </cell>
-          <cell r="S15">
-            <v>182.09</v>
-          </cell>
-          <cell r="T15">
-            <v>0</v>
-          </cell>
-          <cell r="U15">
-            <v>0</v>
-          </cell>
-          <cell r="V15">
-            <v>182.09</v>
-          </cell>
-          <cell r="W15">
-            <v>0</v>
-          </cell>
-          <cell r="X15">
-            <v>0</v>
-          </cell>
-          <cell r="Y15">
-            <v>225.17</v>
-          </cell>
-          <cell r="Z15">
-            <v>0</v>
-          </cell>
-          <cell r="AA15">
-            <v>0</v>
-          </cell>
-          <cell r="AB15">
-            <v>268.43</v>
-          </cell>
-          <cell r="AC15">
-            <v>0</v>
-          </cell>
-          <cell r="AD15">
-            <v>0</v>
-          </cell>
-          <cell r="AE15">
-            <v>236.75000000000003</v>
-          </cell>
-          <cell r="AF15">
-            <v>0</v>
-          </cell>
-          <cell r="AG15">
-            <v>0</v>
-          </cell>
-          <cell r="AH15">
-            <v>217.39999999999998</v>
-          </cell>
-          <cell r="AI15">
-            <v>0</v>
-          </cell>
-          <cell r="AJ15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="L16" t="str">
-            <v>BH-23-MQ</v>
-          </cell>
-          <cell r="M16">
-            <v>324.42999999999995</v>
-          </cell>
-          <cell r="N16">
-            <v>4919</v>
-          </cell>
-          <cell r="O16">
-            <v>6.5954462289083136</v>
-          </cell>
-          <cell r="P16">
-            <v>259.83999999999997</v>
-          </cell>
-          <cell r="Q16">
-            <v>4443</v>
-          </cell>
-          <cell r="R16">
-            <v>5.84830069772676</v>
-          </cell>
-          <cell r="S16">
-            <v>301.70999999999998</v>
-          </cell>
-          <cell r="T16">
-            <v>4313</v>
-          </cell>
-          <cell r="U16">
-            <v>6.9953628564804085</v>
-          </cell>
-          <cell r="V16">
-            <v>301.70999999999998</v>
-          </cell>
-          <cell r="W16">
-            <v>4673</v>
-          </cell>
-          <cell r="X16">
-            <v>6.4564519580569222</v>
-          </cell>
-          <cell r="Y16">
-            <v>327.64</v>
-          </cell>
-          <cell r="Z16">
-            <v>3846</v>
-          </cell>
-          <cell r="AA16">
-            <v>8.5189807592303683</v>
-          </cell>
-          <cell r="AB16">
-            <v>350.07000000000005</v>
-          </cell>
-          <cell r="AC16">
-            <v>4911</v>
-          </cell>
-          <cell r="AD16">
-            <v>7.1282834453268187</v>
-          </cell>
-          <cell r="AE16">
-            <v>250.87</v>
-          </cell>
-          <cell r="AF16">
-            <v>3105</v>
-          </cell>
-          <cell r="AG16">
-            <v>8.0795491143317228</v>
-          </cell>
-          <cell r="AH16">
-            <v>235.68</v>
-          </cell>
-          <cell r="AI16">
-            <v>4689</v>
-          </cell>
-          <cell r="AJ16">
-            <v>5.0262316058861165</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="L17" t="str">
-            <v>BL-63-JQ</v>
-          </cell>
-          <cell r="M17">
-            <v>439.88000000000005</v>
-          </cell>
-          <cell r="N17">
-            <v>1796</v>
-          </cell>
-          <cell r="O17">
-            <v>24.492204899777288</v>
-          </cell>
-          <cell r="P17">
-            <v>644.28</v>
-          </cell>
-          <cell r="Q17">
-            <v>2261</v>
-          </cell>
-          <cell r="R17">
-            <v>28.495356037151705</v>
-          </cell>
-          <cell r="S17">
-            <v>640.36</v>
-          </cell>
-          <cell r="T17">
-            <v>2477</v>
-          </cell>
-          <cell r="U17">
-            <v>25.852240613645538</v>
-          </cell>
-          <cell r="V17">
-            <v>640.36</v>
-          </cell>
-          <cell r="W17">
-            <v>2742</v>
-          </cell>
-          <cell r="X17">
-            <v>23.353756382202771</v>
-          </cell>
-          <cell r="Y17">
-            <v>665.95999999999992</v>
-          </cell>
-          <cell r="Z17">
-            <v>2218</v>
-          </cell>
-          <cell r="AA17">
-            <v>30.025247971145173</v>
-          </cell>
-          <cell r="AB17">
-            <v>520.67000000000007</v>
-          </cell>
-          <cell r="AC17">
-            <v>2201</v>
-          </cell>
-          <cell r="AD17">
-            <v>23.656065424806911</v>
-          </cell>
-          <cell r="AE17">
-            <v>755.24999999999989</v>
-          </cell>
-          <cell r="AF17">
-            <v>2862</v>
-          </cell>
-          <cell r="AG17">
-            <v>26.388888888888886</v>
-          </cell>
-          <cell r="AH17">
-            <v>661.51</v>
-          </cell>
-          <cell r="AI17">
-            <v>2592</v>
-          </cell>
-          <cell r="AJ17">
-            <v>25.521219135802468</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="L18" t="str">
-            <v>BL-65-JQ</v>
-          </cell>
-          <cell r="M18">
-            <v>369.67</v>
-          </cell>
-          <cell r="N18">
-            <v>1626</v>
-          </cell>
-          <cell r="O18">
-            <v>22.734932349323493</v>
-          </cell>
-          <cell r="P18">
-            <v>485.26</v>
-          </cell>
-          <cell r="Q18">
-            <v>1272</v>
-          </cell>
-          <cell r="R18">
-            <v>38.149371069182394</v>
-          </cell>
-          <cell r="S18">
-            <v>775.89</v>
-          </cell>
-          <cell r="T18">
-            <v>1669</v>
-          </cell>
-          <cell r="U18">
-            <v>46.488316357100054</v>
-          </cell>
-          <cell r="V18">
-            <v>775.89</v>
-          </cell>
-          <cell r="W18">
-            <v>2610</v>
-          </cell>
-          <cell r="X18">
-            <v>29.72758620689655</v>
-          </cell>
-          <cell r="Y18">
-            <v>725.10000000000014</v>
-          </cell>
-          <cell r="Z18">
-            <v>2487</v>
-          </cell>
-          <cell r="AA18">
-            <v>29.155609167671898</v>
-          </cell>
-          <cell r="AB18">
-            <v>767.5</v>
-          </cell>
-          <cell r="AC18">
-            <v>2583</v>
-          </cell>
-          <cell r="AD18">
-            <v>29.713511420828493</v>
-          </cell>
-          <cell r="AE18">
-            <v>447.62999999999994</v>
-          </cell>
-          <cell r="AF18">
-            <v>1440</v>
-          </cell>
-          <cell r="AG18">
-            <v>31.08541666666666</v>
-          </cell>
-          <cell r="AH18">
-            <v>682.8599999999999</v>
-          </cell>
-          <cell r="AI18">
-            <v>2127</v>
-          </cell>
-          <cell r="AJ18">
-            <v>32.104372355430179</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="L19" t="str">
-            <v>RM-76-10</v>
-          </cell>
-          <cell r="M19">
-            <v>429.3</v>
-          </cell>
-          <cell r="N19">
-            <v>41</v>
-          </cell>
-          <cell r="O19">
-            <v>1047.0731707317073</v>
-          </cell>
-          <cell r="P19">
-            <v>471.95000000000005</v>
-          </cell>
-          <cell r="Q19">
-            <v>1</v>
-          </cell>
-          <cell r="R19">
-            <v>47195.000000000007</v>
-          </cell>
-          <cell r="S19">
-            <v>286.27999999999997</v>
-          </cell>
-          <cell r="T19">
-            <v>18</v>
-          </cell>
-          <cell r="U19">
-            <v>1590.4444444444443</v>
-          </cell>
-          <cell r="V19">
-            <v>286.27999999999997</v>
-          </cell>
-          <cell r="W19">
-            <v>0</v>
-          </cell>
-          <cell r="X19">
-            <v>0</v>
-          </cell>
-          <cell r="Y19">
-            <v>386.34999999999997</v>
-          </cell>
-          <cell r="Z19">
-            <v>0</v>
-          </cell>
-          <cell r="AA19">
-            <v>0</v>
-          </cell>
-          <cell r="AB19">
-            <v>163.19999999999999</v>
-          </cell>
-          <cell r="AC19">
-            <v>0</v>
-          </cell>
-          <cell r="AD19">
-            <v>0</v>
-          </cell>
-          <cell r="AE19">
-            <v>202.89</v>
-          </cell>
-          <cell r="AF19">
-            <v>0</v>
-          </cell>
-          <cell r="AG19">
-            <v>0</v>
-          </cell>
-          <cell r="AH19">
-            <v>80.2</v>
-          </cell>
-          <cell r="AI19">
-            <v>0</v>
-          </cell>
-          <cell r="AJ19">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2320,7 +915,7 @@
       <c r="G1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2797,7 +1392,7 @@
       <c r="D22" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="13" t="s">
         <v>95</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -2840,7 +1435,7 @@
       <c r="D24" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="13" t="s">
         <v>96</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -2860,7 +1455,7 @@
       <c r="D25" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="13" t="s">
         <v>97</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -2880,8 +1475,8 @@
   <dimension ref="A1:J209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F162" sqref="F162:F185"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J138" sqref="J138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3685,7 +2280,7 @@
         <v>2025</v>
       </c>
       <c r="J24" s="11">
-        <f>IFERROR(VLOOKUP(C24,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C24,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>17.857807308970099</v>
       </c>
     </row>
@@ -3719,7 +2314,7 @@
         <v>2025</v>
       </c>
       <c r="J25" s="11">
-        <f>IFERROR(VLOOKUP(C25,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C25,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>25.397995705082323</v>
       </c>
     </row>
@@ -3753,7 +2348,7 @@
         <v>2025</v>
       </c>
       <c r="J26" s="11">
-        <f>IFERROR(VLOOKUP(C26,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C26,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>6.4586614173228352</v>
       </c>
     </row>
@@ -3787,7 +2382,7 @@
         <v>2025</v>
       </c>
       <c r="J27" s="11">
-        <f>IFERROR(VLOOKUP(C27,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C27,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>27.32341110217217</v>
       </c>
     </row>
@@ -3821,7 +2416,7 @@
         <v>2025</v>
       </c>
       <c r="J28" s="11">
-        <f>IFERROR(VLOOKUP(C28,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C28,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>16.719829258828096</v>
       </c>
     </row>
@@ -3855,6 +2450,7 @@
         <v>2025</v>
       </c>
       <c r="J29" s="11">
+        <f>IFERROR(VLOOKUP(C29,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3888,7 +2484,7 @@
         <v>2025</v>
       </c>
       <c r="J30" s="11">
-        <f>IFERROR(VLOOKUP(C30,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C30,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>12.497641509433961</v>
       </c>
     </row>
@@ -3922,7 +2518,7 @@
         <v>2025</v>
       </c>
       <c r="J31" s="11">
-        <f>IFERROR(VLOOKUP(C31,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C31,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>4.787167120989726</v>
       </c>
     </row>
@@ -3956,7 +2552,7 @@
         <v>2025</v>
       </c>
       <c r="J32" s="11">
-        <f>IFERROR(VLOOKUP(C32,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C32,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>8.9100000000000019</v>
       </c>
     </row>
@@ -3990,7 +2586,7 @@
         <v>2025</v>
       </c>
       <c r="J33" s="11">
-        <f>IFERROR(VLOOKUP(C33,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C33,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>6.5954462289083136</v>
       </c>
     </row>
@@ -4024,7 +2620,7 @@
         <v>2025</v>
       </c>
       <c r="J34" s="11">
-        <f>IFERROR(VLOOKUP(C34,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C34,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4058,7 +2654,7 @@
         <v>2025</v>
       </c>
       <c r="J35" s="11">
-        <f>IFERROR(VLOOKUP(C35,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C35,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>24.492204899777288</v>
       </c>
     </row>
@@ -4092,7 +2688,7 @@
         <v>2025</v>
       </c>
       <c r="J36" s="11">
-        <f>IFERROR(VLOOKUP(C36,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C36,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>22.734932349323493</v>
       </c>
     </row>
@@ -4126,7 +2722,7 @@
         <v>2025</v>
       </c>
       <c r="J37" s="11">
-        <f>IFERROR(VLOOKUP(C37,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C37,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4160,7 +2756,7 @@
         <v>2025</v>
       </c>
       <c r="J38" s="11">
-        <f>IFERROR(VLOOKUP(C38,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C38,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4194,7 +2790,7 @@
         <v>2025</v>
       </c>
       <c r="J39" s="11">
-        <f>IFERROR(VLOOKUP(C39,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C39,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4228,7 +2824,7 @@
         <v>2025</v>
       </c>
       <c r="J40" s="11">
-        <f>IFERROR(VLOOKUP(C40,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C40,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4262,7 +2858,7 @@
         <v>2025</v>
       </c>
       <c r="J41" s="11">
-        <f>IFERROR(VLOOKUP(C41,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C41,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4296,7 +2892,7 @@
         <v>2025</v>
       </c>
       <c r="J42" s="11">
-        <f>IFERROR(VLOOKUP(C42,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C42,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4330,7 +2926,7 @@
         <v>2025</v>
       </c>
       <c r="J43" s="11">
-        <f>IFERROR(VLOOKUP(C43,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C43,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>32.78947368421052</v>
       </c>
     </row>
@@ -4364,7 +2960,7 @@
         <v>2025</v>
       </c>
       <c r="J44" s="11">
-        <f>IFERROR(VLOOKUP(C44,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C44,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4398,7 +2994,7 @@
         <v>2025</v>
       </c>
       <c r="J45" s="11">
-        <f>IFERROR(VLOOKUP(C45,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C45,Sheet2!$A$1:$Y$19,4,0),0)</f>
         <v>1.4289283037721709</v>
       </c>
     </row>
@@ -4432,8 +3028,8 @@
         <v>2025</v>
       </c>
       <c r="J46" s="11">
-        <f>IFERROR(VLOOKUP(C46,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>17.857807308970099</v>
+        <f>IFERROR(VLOOKUP(C46,Sheet2!$A$1:$Y$19,7,0),0)</f>
+        <v>37.281407035175882</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4466,8 +3062,8 @@
         <v>2025</v>
       </c>
       <c r="J47" s="11">
-        <f>IFERROR(VLOOKUP(C47,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>25.397995705082323</v>
+        <f>IFERROR(VLOOKUP(C47,Sheet2!$A$1:$Y$19,7,0),0)</f>
+        <v>19.192199578355588</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4500,8 +3096,8 @@
         <v>2025</v>
       </c>
       <c r="J48" s="11">
-        <f>IFERROR(VLOOKUP(C48,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>6.4586614173228352</v>
+        <f>IFERROR(VLOOKUP(C48,Sheet2!$A$1:$Y$19,7,0),0)</f>
+        <v>3.6287650602409633</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4534,8 +3130,8 @@
         <v>2025</v>
       </c>
       <c r="J49" s="11">
-        <f>IFERROR(VLOOKUP(C49,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>27.32341110217217</v>
+        <f>IFERROR(VLOOKUP(C49,Sheet2!$A$1:$Y$19,7,0),0)</f>
+        <v>23.889205444761</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4568,8 +3164,8 @@
         <v>2025</v>
       </c>
       <c r="J50" s="11">
-        <f>IFERROR(VLOOKUP(C50,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>16.719829258828096</v>
+        <f>IFERROR(VLOOKUP(C50,Sheet2!$A$1:$Y$19,7,0),0)</f>
+        <v>17.328478344193176</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4602,6 +3198,7 @@
         <v>2025</v>
       </c>
       <c r="J51" s="11">
+        <f>IFERROR(VLOOKUP(C51,Sheet2!$A$1:$Y$19,7,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4635,8 +3232,8 @@
         <v>2025</v>
       </c>
       <c r="J52" s="11">
-        <f>IFERROR(VLOOKUP(C52,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>12.497641509433961</v>
+        <f>IFERROR(VLOOKUP(C52,Sheet2!$A$1:$Y$19,7,0),0)</f>
+        <v>10.070480081716038</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4669,8 +3266,8 @@
         <v>2025</v>
       </c>
       <c r="J53" s="11">
-        <f>IFERROR(VLOOKUP(C53,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>4.787167120989726</v>
+        <f>IFERROR(VLOOKUP(C53,Sheet2!$A$1:$Y$19,7,0),0)</f>
+        <v>4.4963054187192117</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4703,8 +3300,8 @@
         <v>2025</v>
       </c>
       <c r="J54" s="11">
-        <f>IFERROR(VLOOKUP(C54,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>8.9100000000000019</v>
+        <f>IFERROR(VLOOKUP(C54,Sheet2!$A$1:$Y$19,7,0),0)</f>
+        <v>7.7149472600977624</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4737,8 +3334,8 @@
         <v>2025</v>
       </c>
       <c r="J55" s="11">
-        <f>IFERROR(VLOOKUP(C55,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>6.5954462289083136</v>
+        <f>IFERROR(VLOOKUP(C55,Sheet2!$A$1:$Y$19,7,0),0)</f>
+        <v>5.84830069772676</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4771,7 +3368,7 @@
         <v>2025</v>
       </c>
       <c r="J56" s="11">
-        <f>IFERROR(VLOOKUP(C56,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C56,Sheet2!$A$1:$Y$19,7,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4805,8 +3402,8 @@
         <v>2025</v>
       </c>
       <c r="J57" s="11">
-        <f>IFERROR(VLOOKUP(C57,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>24.492204899777288</v>
+        <f>IFERROR(VLOOKUP(C57,Sheet2!$A$1:$Y$19,7,0),0)</f>
+        <v>28.495356037151705</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4839,8 +3436,8 @@
         <v>2025</v>
       </c>
       <c r="J58" s="11">
-        <f>IFERROR(VLOOKUP(C58,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>22.734932349323493</v>
+        <f>IFERROR(VLOOKUP(C58,Sheet2!$A$1:$Y$19,7,0),0)</f>
+        <v>38.149371069182394</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4873,7 +3470,7 @@
         <v>2025</v>
       </c>
       <c r="J59" s="11">
-        <f>IFERROR(VLOOKUP(C59,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C59,Sheet2!$A$1:$Y$19,7,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4907,7 +3504,7 @@
         <v>2025</v>
       </c>
       <c r="J60" s="11">
-        <f>IFERROR(VLOOKUP(C60,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C60,Sheet2!$A$1:$Y$19,7,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4941,7 +3538,7 @@
         <v>2025</v>
       </c>
       <c r="J61" s="11">
-        <f>IFERROR(VLOOKUP(C61,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C61,Sheet2!$A$1:$Y$19,7,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4975,7 +3572,7 @@
         <v>2025</v>
       </c>
       <c r="J62" s="11">
-        <f>IFERROR(VLOOKUP(C62,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C62,Sheet2!$A$1:$Y$19,7,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5009,7 +3606,7 @@
         <v>2025</v>
       </c>
       <c r="J63" s="11">
-        <f>IFERROR(VLOOKUP(C63,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C63,Sheet2!$A$1:$Y$19,7,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5043,7 +3640,7 @@
         <v>2025</v>
       </c>
       <c r="J64" s="11">
-        <f>IFERROR(VLOOKUP(C64,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C64,Sheet2!$A$1:$Y$19,7,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5077,8 +3674,8 @@
         <v>2025</v>
       </c>
       <c r="J65" s="11">
-        <f>IFERROR(VLOOKUP(C65,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>32.78947368421052</v>
+        <f>IFERROR(VLOOKUP(C65,Sheet2!$A$1:$Y$19,7,0),0)</f>
+        <v>223.79545454545453</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -5111,7 +3708,7 @@
         <v>2025</v>
       </c>
       <c r="J66" s="11">
-        <f>IFERROR(VLOOKUP(C66,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C66,Sheet2!$A$1:$Y$19,7,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5145,8 +3742,8 @@
         <v>2025</v>
       </c>
       <c r="J67" s="11">
-        <f>IFERROR(VLOOKUP(C67,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>1.4289283037721709</v>
+        <f>IFERROR(VLOOKUP(C67,Sheet2!$A$1:$Y$19,7,0),0)</f>
+        <v>2.8815357413488254</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5179,8 +3776,8 @@
         <v>2025</v>
       </c>
       <c r="J68" s="11">
-        <f>IFERROR(VLOOKUP(C68,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>17.857807308970099</v>
+        <f>IFERROR(VLOOKUP(C68,Sheet2!$A$1:$Y$19,10,0),0)</f>
+        <v>271.11564625850349</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5213,8 +3810,8 @@
         <v>2025</v>
       </c>
       <c r="J69" s="11">
-        <f>IFERROR(VLOOKUP(C69,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>25.397995705082323</v>
+        <f>IFERROR(VLOOKUP(C69,Sheet2!$A$1:$Y$19,10,0),0)</f>
+        <v>34.506426735218518</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5247,8 +3844,8 @@
         <v>2025</v>
       </c>
       <c r="J70" s="11">
-        <f>IFERROR(VLOOKUP(C70,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>6.4586614173228352</v>
+        <f>IFERROR(VLOOKUP(C70,Sheet2!$A$1:$Y$19,10,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5281,8 +3878,8 @@
         <v>2025</v>
       </c>
       <c r="J71" s="11">
-        <f>IFERROR(VLOOKUP(C71,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>27.32341110217217</v>
+        <f>IFERROR(VLOOKUP(C71,Sheet2!$A$1:$Y$19,10,0),0)</f>
+        <v>25.392689005815566</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5315,8 +3912,8 @@
         <v>2025</v>
       </c>
       <c r="J72" s="11">
-        <f>IFERROR(VLOOKUP(C72,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>16.719829258828096</v>
+        <f>IFERROR(VLOOKUP(C72,Sheet2!$A$1:$Y$19,10,0),0)</f>
+        <v>17.387365911799758</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5349,6 +3946,7 @@
         <v>2025</v>
       </c>
       <c r="J73" s="11">
+        <f>IFERROR(VLOOKUP(C73,Sheet2!$A$1:$Y$19,10,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5382,8 +3980,8 @@
         <v>2025</v>
       </c>
       <c r="J74" s="11">
-        <f>IFERROR(VLOOKUP(C74,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>12.497641509433961</v>
+        <f>IFERROR(VLOOKUP(C74,Sheet2!$A$1:$Y$19,10,0),0)</f>
+        <v>14.263888888888888</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5416,8 +4014,8 @@
         <v>2025</v>
       </c>
       <c r="J75" s="11">
-        <f>IFERROR(VLOOKUP(C75,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>4.787167120989726</v>
+        <f>IFERROR(VLOOKUP(C75,Sheet2!$A$1:$Y$19,10,0),0)</f>
+        <v>5.6880466472303208</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5450,8 +4048,8 @@
         <v>2025</v>
       </c>
       <c r="J76" s="11">
-        <f>IFERROR(VLOOKUP(C76,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>8.9100000000000019</v>
+        <f>IFERROR(VLOOKUP(C76,Sheet2!$A$1:$Y$19,10,0),0)</f>
+        <v>5.7857578840284853</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5484,8 +4082,8 @@
         <v>2025</v>
       </c>
       <c r="J77" s="11">
-        <f>IFERROR(VLOOKUP(C77,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>6.5954462289083136</v>
+        <f>IFERROR(VLOOKUP(C77,Sheet2!$A$1:$Y$19,10,0),0)</f>
+        <v>6.9953628564804085</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5518,7 +4116,7 @@
         <v>2025</v>
       </c>
       <c r="J78" s="11">
-        <f>IFERROR(VLOOKUP(C78,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C78,Sheet2!$A$1:$Y$19,10,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5552,8 +4150,8 @@
         <v>2025</v>
       </c>
       <c r="J79" s="11">
-        <f>IFERROR(VLOOKUP(C79,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>24.492204899777288</v>
+        <f>IFERROR(VLOOKUP(C79,Sheet2!$A$1:$Y$19,10,0),0)</f>
+        <v>25.852240613645538</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5586,8 +4184,8 @@
         <v>2025</v>
       </c>
       <c r="J80" s="11">
-        <f>IFERROR(VLOOKUP(C80,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>22.734932349323493</v>
+        <f>IFERROR(VLOOKUP(C80,Sheet2!$A$1:$Y$19,10,0),0)</f>
+        <v>46.488316357100054</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5620,7 +4218,7 @@
         <v>2025</v>
       </c>
       <c r="J81" s="11">
-        <f>IFERROR(VLOOKUP(C81,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C81,Sheet2!$A$1:$Y$19,10,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5654,7 +4252,7 @@
         <v>2025</v>
       </c>
       <c r="J82" s="11">
-        <f>IFERROR(VLOOKUP(C82,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C82,Sheet2!$A$1:$Y$19,10,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5688,7 +4286,7 @@
         <v>2025</v>
       </c>
       <c r="J83" s="11">
-        <f>IFERROR(VLOOKUP(C83,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C83,Sheet2!$A$1:$Y$19,10,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5722,7 +4320,7 @@
         <v>2025</v>
       </c>
       <c r="J84" s="11">
-        <f>IFERROR(VLOOKUP(C84,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C84,Sheet2!$A$1:$Y$19,10,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5756,7 +4354,7 @@
         <v>2025</v>
       </c>
       <c r="J85" s="11">
-        <f>IFERROR(VLOOKUP(C85,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C85,Sheet2!$A$1:$Y$19,10,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5790,7 +4388,7 @@
         <v>2025</v>
       </c>
       <c r="J86" s="11">
-        <f>IFERROR(VLOOKUP(C86,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C86,Sheet2!$A$1:$Y$19,10,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5824,8 +4422,8 @@
         <v>2025</v>
       </c>
       <c r="J87" s="11">
-        <f>IFERROR(VLOOKUP(C87,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>32.78947368421052</v>
+        <f>IFERROR(VLOOKUP(C87,Sheet2!$A$1:$Y$19,10,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -5858,7 +4456,7 @@
         <v>2025</v>
       </c>
       <c r="J88" s="11">
-        <f>IFERROR(VLOOKUP(C88,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C88,Sheet2!$A$1:$Y$19,10,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5892,8 +4490,8 @@
         <v>2025</v>
       </c>
       <c r="J89" s="11">
-        <f>IFERROR(VLOOKUP(C89,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>1.4289283037721709</v>
+        <f>IFERROR(VLOOKUP(C89,Sheet2!$A$1:$Y$19,10,0),0)</f>
+        <v>8.0140692640692635</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5926,7 +4524,7 @@
         <v>2025</v>
       </c>
       <c r="J90" s="11">
-        <f>IFERROR(VLOOKUP(C90,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C90,Sheet2!$A$1:$Y$19,10,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5960,8 +4558,8 @@
         <v>2025</v>
       </c>
       <c r="J91" s="11">
-        <f>IFERROR(VLOOKUP(C91,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>17.857807308970099</v>
+        <f>IFERROR(VLOOKUP(C91,Sheet2!$A$1:$Y$19,13,0),0)</f>
+        <v>52.267540983606565</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5994,8 +4592,8 @@
         <v>2025</v>
       </c>
       <c r="J92" s="11">
-        <f>IFERROR(VLOOKUP(C92,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>25.397995705082323</v>
+        <f>IFERROR(VLOOKUP(C92,Sheet2!$A$1:$Y$19,13,0),0)</f>
+        <v>25.551395939086298</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6028,8 +4626,8 @@
         <v>2025</v>
       </c>
       <c r="J93" s="11">
-        <f>IFERROR(VLOOKUP(C93,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>6.4586614173228352</v>
+        <f>IFERROR(VLOOKUP(C93,Sheet2!$A$1:$Y$19,13,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6062,8 +4660,8 @@
         <v>2025</v>
       </c>
       <c r="J94" s="11">
-        <f>IFERROR(VLOOKUP(C94,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>27.32341110217217</v>
+        <f>IFERROR(VLOOKUP(C94,Sheet2!$A$1:$Y$19,13,0),0)</f>
+        <v>22.601183140251418</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6096,8 +4694,8 @@
         <v>2025</v>
       </c>
       <c r="J95" s="11">
-        <f>IFERROR(VLOOKUP(C95,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>16.719829258828096</v>
+        <f>IFERROR(VLOOKUP(C95,Sheet2!$A$1:$Y$19,13,0),0)</f>
+        <v>20.623939679547597</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6130,6 +4728,7 @@
         <v>2025</v>
       </c>
       <c r="J96" s="11">
+        <f>IFERROR(VLOOKUP(C96,Sheet2!$A$1:$Y$19,13,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6163,8 +4762,8 @@
         <v>2025</v>
       </c>
       <c r="J97" s="11">
-        <f>IFERROR(VLOOKUP(C97,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>12.497641509433961</v>
+        <f>IFERROR(VLOOKUP(C97,Sheet2!$A$1:$Y$19,13,0),0)</f>
+        <v>9.5646100116414434</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6197,8 +4796,8 @@
         <v>2025</v>
       </c>
       <c r="J98" s="11">
-        <f>IFERROR(VLOOKUP(C98,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>4.787167120989726</v>
+        <f>IFERROR(VLOOKUP(C98,Sheet2!$A$1:$Y$19,13,0),0)</f>
+        <v>6.0590062111801242</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6231,8 +4830,8 @@
         <v>2025</v>
       </c>
       <c r="J99" s="11">
-        <f>IFERROR(VLOOKUP(C99,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>8.9100000000000019</v>
+        <f>IFERROR(VLOOKUP(C99,Sheet2!$A$1:$Y$19,13,0),0)</f>
+        <v>7.0423476968796441</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6265,8 +4864,8 @@
         <v>2025</v>
       </c>
       <c r="J100" s="11">
-        <f>IFERROR(VLOOKUP(C100,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>6.5954462289083136</v>
+        <f>IFERROR(VLOOKUP(C100,Sheet2!$A$1:$Y$19,13,0),0)</f>
+        <v>6.4564519580569222</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6299,7 +4898,7 @@
         <v>2025</v>
       </c>
       <c r="J101" s="11">
-        <f>IFERROR(VLOOKUP(C101,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C101,Sheet2!$A$1:$Y$19,13,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6333,8 +4932,8 @@
         <v>2025</v>
       </c>
       <c r="J102" s="11">
-        <f>IFERROR(VLOOKUP(C102,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>24.492204899777288</v>
+        <f>IFERROR(VLOOKUP(C102,Sheet2!$A$1:$Y$19,13,0),0)</f>
+        <v>23.353756382202771</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6367,8 +4966,8 @@
         <v>2025</v>
       </c>
       <c r="J103" s="11">
-        <f>IFERROR(VLOOKUP(C103,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>22.734932349323493</v>
+        <f>IFERROR(VLOOKUP(C103,Sheet2!$A$1:$Y$19,13,0),0)</f>
+        <v>29.72758620689655</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6401,7 +5000,7 @@
         <v>2025</v>
       </c>
       <c r="J104" s="11">
-        <f>IFERROR(VLOOKUP(C104,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C104,Sheet2!$A$1:$Y$19,13,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6435,7 +5034,7 @@
         <v>2025</v>
       </c>
       <c r="J105" s="11">
-        <f>IFERROR(VLOOKUP(C105,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C105,Sheet2!$A$1:$Y$19,13,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6469,7 +5068,7 @@
         <v>2025</v>
       </c>
       <c r="J106" s="11">
-        <f>IFERROR(VLOOKUP(C106,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C106,Sheet2!$A$1:$Y$19,13,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6503,7 +5102,7 @@
         <v>2025</v>
       </c>
       <c r="J107" s="11">
-        <f>IFERROR(VLOOKUP(C107,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C107,Sheet2!$A$1:$Y$19,13,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6537,7 +5136,7 @@
         <v>2025</v>
       </c>
       <c r="J108" s="11">
-        <f>IFERROR(VLOOKUP(C108,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C108,Sheet2!$A$1:$Y$19,13,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6571,7 +5170,7 @@
         <v>2025</v>
       </c>
       <c r="J109" s="11">
-        <f>IFERROR(VLOOKUP(C109,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C109,Sheet2!$A$1:$Y$19,13,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6605,8 +5204,8 @@
         <v>2025</v>
       </c>
       <c r="J110" s="11">
-        <f>IFERROR(VLOOKUP(C110,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>32.78947368421052</v>
+        <f>IFERROR(VLOOKUP(C110,Sheet2!$A$1:$Y$19,13,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -6639,7 +5238,7 @@
         <v>2025</v>
       </c>
       <c r="J111" s="11">
-        <f>IFERROR(VLOOKUP(C111,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C111,Sheet2!$A$1:$Y$19,13,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6673,8 +5272,8 @@
         <v>2025</v>
       </c>
       <c r="J112" s="11">
-        <f>IFERROR(VLOOKUP(C112,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>1.4289283037721709</v>
+        <f>IFERROR(VLOOKUP(C112,Sheet2!$A$1:$Y$19,13,0),0)</f>
+        <v>5.4051094890510951</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6707,7 +5306,7 @@
         <v>2025</v>
       </c>
       <c r="J113" s="11">
-        <f>IFERROR(VLOOKUP(C113,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C113,Sheet2!$A$1:$Y$19,13,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6741,8 +5340,8 @@
         <v>2025</v>
       </c>
       <c r="J114" s="11">
-        <f>IFERROR(VLOOKUP(C114,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>17.857807308970099</v>
+        <f>IFERROR(VLOOKUP(C114,Sheet2!$A$1:$Y$19,16,0),0)</f>
+        <v>1228.1739130434783</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6775,8 +5374,8 @@
         <v>2025</v>
       </c>
       <c r="J115" s="11">
-        <f>IFERROR(VLOOKUP(C115,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>25.397995705082323</v>
+        <f>IFERROR(VLOOKUP(C115,Sheet2!$A$1:$Y$19,16,0),0)</f>
+        <v>26.550539744847885</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6809,8 +5408,8 @@
         <v>2025</v>
       </c>
       <c r="J116" s="11">
-        <f>IFERROR(VLOOKUP(C116,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>6.4586614173228352</v>
+        <f>IFERROR(VLOOKUP(C116,Sheet2!$A$1:$Y$19,16,0),0)</f>
+        <v>28.747196738022424</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6843,8 +5442,8 @@
         <v>2025</v>
       </c>
       <c r="J117" s="11">
-        <f>IFERROR(VLOOKUP(C117,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>27.32341110217217</v>
+        <f>IFERROR(VLOOKUP(C117,Sheet2!$A$1:$Y$19,16,0),0)</f>
+        <v>22.504118616144975</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6877,8 +5476,8 @@
         <v>2025</v>
       </c>
       <c r="J118" s="11">
-        <f>IFERROR(VLOOKUP(C118,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>16.719829258828096</v>
+        <f>IFERROR(VLOOKUP(C118,Sheet2!$A$1:$Y$19,16,0),0)</f>
+        <v>19.964817320703652</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6911,6 +5510,7 @@
         <v>2025</v>
       </c>
       <c r="J119" s="11">
+        <f>IFERROR(VLOOKUP(C119,Sheet2!$A$1:$Y$19,16,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6944,8 +5544,8 @@
         <v>2025</v>
       </c>
       <c r="J120" s="11">
-        <f>IFERROR(VLOOKUP(C120,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>12.497641509433961</v>
+        <f>IFERROR(VLOOKUP(C120,Sheet2!$A$1:$Y$19,16,0),0)</f>
+        <v>7.1377322229340168</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6978,8 +5578,8 @@
         <v>2025</v>
       </c>
       <c r="J121" s="11">
-        <f>IFERROR(VLOOKUP(C121,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>4.787167120989726</v>
+        <f>IFERROR(VLOOKUP(C121,Sheet2!$A$1:$Y$19,16,0),0)</f>
+        <v>6.7315357561547478</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7012,8 +5612,8 @@
         <v>2025</v>
       </c>
       <c r="J122" s="11">
-        <f>IFERROR(VLOOKUP(C122,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>8.9100000000000019</v>
+        <f>IFERROR(VLOOKUP(C122,Sheet2!$A$1:$Y$19,16,0),0)</f>
+        <v>5.9129943502824851</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7046,8 +5646,8 @@
         <v>2025</v>
       </c>
       <c r="J123" s="11">
-        <f>IFERROR(VLOOKUP(C123,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>6.5954462289083136</v>
+        <f>IFERROR(VLOOKUP(C123,Sheet2!$A$1:$Y$19,16,0),0)</f>
+        <v>8.5189807592303683</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7080,7 +5680,7 @@
         <v>2025</v>
       </c>
       <c r="J124" s="11">
-        <f>IFERROR(VLOOKUP(C124,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C124,Sheet2!$A$1:$Y$19,16,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7114,8 +5714,8 @@
         <v>2025</v>
       </c>
       <c r="J125" s="11">
-        <f>IFERROR(VLOOKUP(C125,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>24.492204899777288</v>
+        <f>IFERROR(VLOOKUP(C125,Sheet2!$A$1:$Y$19,16,0),0)</f>
+        <v>30.025247971145173</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7148,8 +5748,8 @@
         <v>2025</v>
       </c>
       <c r="J126" s="11">
-        <f>IFERROR(VLOOKUP(C126,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>22.734932349323493</v>
+        <f>IFERROR(VLOOKUP(C126,Sheet2!$A$1:$Y$19,16,0),0)</f>
+        <v>29.155609167671898</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7182,7 +5782,7 @@
         <v>2025</v>
       </c>
       <c r="J127" s="11">
-        <f>IFERROR(VLOOKUP(C127,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C127,Sheet2!$A$1:$Y$19,16,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7216,7 +5816,7 @@
         <v>2025</v>
       </c>
       <c r="J128" s="11">
-        <f>IFERROR(VLOOKUP(C128,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C128,Sheet2!$A$1:$Y$19,16,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7250,7 +5850,7 @@
         <v>2025</v>
       </c>
       <c r="J129" s="11">
-        <f>IFERROR(VLOOKUP(C129,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C129,Sheet2!$A$1:$Y$19,16,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7284,7 +5884,7 @@
         <v>2025</v>
       </c>
       <c r="J130" s="11">
-        <f>IFERROR(VLOOKUP(C130,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C130,Sheet2!$A$1:$Y$19,16,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7318,7 +5918,7 @@
         <v>2025</v>
       </c>
       <c r="J131" s="11">
-        <f>IFERROR(VLOOKUP(C131,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C131,Sheet2!$A$1:$Y$19,16,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7352,7 +5952,7 @@
         <v>2025</v>
       </c>
       <c r="J132" s="11">
-        <f>IFERROR(VLOOKUP(C132,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C132,Sheet2!$A$1:$Y$19,16,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7386,8 +5986,8 @@
         <v>2025</v>
       </c>
       <c r="J133" s="11">
-        <f>IFERROR(VLOOKUP(C133,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>32.78947368421052</v>
+        <f>IFERROR(VLOOKUP(C133,Sheet2!$A$1:$Y$19,16,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -7420,7 +6020,7 @@
         <v>2025</v>
       </c>
       <c r="J134" s="11">
-        <f>IFERROR(VLOOKUP(C134,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C134,Sheet2!$A$1:$Y$19,16,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7454,8 +6054,8 @@
         <v>2025</v>
       </c>
       <c r="J135" s="11">
-        <f>IFERROR(VLOOKUP(C135,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>1.4289283037721709</v>
+        <f>IFERROR(VLOOKUP(C135,Sheet2!$A$1:$Y$19,16,0),0)</f>
+        <v>4.9442290486131828</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7488,7 +6088,7 @@
         <v>2025</v>
       </c>
       <c r="J136" s="11">
-        <f>IFERROR(VLOOKUP(C136,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C136,Sheet2!$A$1:$Y$19,16,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7522,7 +6122,7 @@
         <v>2025</v>
       </c>
       <c r="J137" s="11">
-        <f>IFERROR(VLOOKUP(C137,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C137,Sheet2!$A$1:$Y$19,16,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7556,8 +6156,8 @@
         <v>2025</v>
       </c>
       <c r="J138" s="11">
-        <f>IFERROR(VLOOKUP(C138,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>17.857807308970099</v>
+        <f>IFERROR(VLOOKUP(C138,Sheet2!$A$1:$Y$19,19,0),0)</f>
+        <v>68.693659761456374</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7590,8 +6190,8 @@
         <v>2025</v>
       </c>
       <c r="J139" s="11">
-        <f>IFERROR(VLOOKUP(C139,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>25.397995705082323</v>
+        <f>IFERROR(VLOOKUP(C139,Sheet2!$A$1:$Y$19,19,0),0)</f>
+        <v>28.934950955085188</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7624,8 +6224,8 @@
         <v>2025</v>
       </c>
       <c r="J140" s="11">
-        <f>IFERROR(VLOOKUP(C140,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>6.4586614173228352</v>
+        <f>IFERROR(VLOOKUP(C140,Sheet2!$A$1:$Y$19,19,0),0)</f>
+        <v>22.046265328874021</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7658,8 +6258,8 @@
         <v>2025</v>
       </c>
       <c r="J141" s="11">
-        <f>IFERROR(VLOOKUP(C141,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>27.32341110217217</v>
+        <f>IFERROR(VLOOKUP(C141,Sheet2!$A$1:$Y$19,19,0),0)</f>
+        <v>22.564692982456137</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7692,8 +6292,8 @@
         <v>2025</v>
       </c>
       <c r="J142" s="11">
-        <f>IFERROR(VLOOKUP(C142,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>16.719829258828096</v>
+        <f>IFERROR(VLOOKUP(C142,Sheet2!$A$1:$Y$19,19,0),0)</f>
+        <v>20.177786060380168</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7726,6 +6326,7 @@
         <v>2025</v>
       </c>
       <c r="J143" s="11">
+        <f>IFERROR(VLOOKUP(C143,Sheet2!$A$1:$Y$19,19,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7759,8 +6360,8 @@
         <v>2025</v>
       </c>
       <c r="J144" s="11">
-        <f>IFERROR(VLOOKUP(C144,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>12.497641509433961</v>
+        <f>IFERROR(VLOOKUP(C144,Sheet2!$A$1:$Y$19,19,0),0)</f>
+        <v>10.89561170212766</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7793,8 +6394,8 @@
         <v>2025</v>
       </c>
       <c r="J145" s="11">
-        <f>IFERROR(VLOOKUP(C145,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>4.787167120989726</v>
+        <f>IFERROR(VLOOKUP(C145,Sheet2!$A$1:$Y$19,19,0),0)</f>
+        <v>5.6579166666666669</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7827,8 +6428,8 @@
         <v>2025</v>
       </c>
       <c r="J146" s="11">
-        <f>IFERROR(VLOOKUP(C146,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>8.9100000000000019</v>
+        <f>IFERROR(VLOOKUP(C146,Sheet2!$A$1:$Y$19,19,0),0)</f>
+        <v>4.011129660545353</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7861,8 +6462,8 @@
         <v>2025</v>
       </c>
       <c r="J147" s="11">
-        <f>IFERROR(VLOOKUP(C147,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>6.5954462289083136</v>
+        <f>IFERROR(VLOOKUP(C147,Sheet2!$A$1:$Y$19,19,0),0)</f>
+        <v>7.1282834453268187</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7895,7 +6496,7 @@
         <v>2025</v>
       </c>
       <c r="J148" s="11">
-        <f>IFERROR(VLOOKUP(C148,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C148,Sheet2!$A$1:$Y$19,19,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7929,8 +6530,8 @@
         <v>2025</v>
       </c>
       <c r="J149" s="11">
-        <f>IFERROR(VLOOKUP(C149,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>24.492204899777288</v>
+        <f>IFERROR(VLOOKUP(C149,Sheet2!$A$1:$Y$19,19,0),0)</f>
+        <v>23.656065424806911</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7963,8 +6564,8 @@
         <v>2025</v>
       </c>
       <c r="J150" s="11">
-        <f>IFERROR(VLOOKUP(C150,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>22.734932349323493</v>
+        <f>IFERROR(VLOOKUP(C150,Sheet2!$A$1:$Y$19,19,0),0)</f>
+        <v>29.713511420828493</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7997,7 +6598,7 @@
         <v>2025</v>
       </c>
       <c r="J151" s="11">
-        <f>IFERROR(VLOOKUP(C151,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C151,Sheet2!$A$1:$Y$19,19,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8031,7 +6632,7 @@
         <v>2025</v>
       </c>
       <c r="J152" s="11">
-        <f>IFERROR(VLOOKUP(C152,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C152,Sheet2!$A$1:$Y$19,19,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8065,7 +6666,7 @@
         <v>2025</v>
       </c>
       <c r="J153" s="11">
-        <f>IFERROR(VLOOKUP(C153,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C153,Sheet2!$A$1:$Y$19,19,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8099,7 +6700,7 @@
         <v>2025</v>
       </c>
       <c r="J154" s="11">
-        <f>IFERROR(VLOOKUP(C154,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C154,Sheet2!$A$1:$Y$19,19,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8133,7 +6734,7 @@
         <v>2025</v>
       </c>
       <c r="J155" s="11">
-        <f>IFERROR(VLOOKUP(C155,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C155,Sheet2!$A$1:$Y$19,19,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8167,7 +6768,7 @@
         <v>2025</v>
       </c>
       <c r="J156" s="11">
-        <f>IFERROR(VLOOKUP(C156,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C156,Sheet2!$A$1:$Y$19,19,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8201,8 +6802,8 @@
         <v>2025</v>
       </c>
       <c r="J157" s="11">
-        <f>IFERROR(VLOOKUP(C157,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>32.78947368421052</v>
+        <f>IFERROR(VLOOKUP(C157,Sheet2!$A$1:$Y$19,19,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -8235,7 +6836,7 @@
         <v>2025</v>
       </c>
       <c r="J158" s="11">
-        <f>IFERROR(VLOOKUP(C158,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C158,Sheet2!$A$1:$Y$19,19,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8269,8 +6870,8 @@
         <v>2025</v>
       </c>
       <c r="J159" s="11">
-        <f>IFERROR(VLOOKUP(C159,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>1.4289283037721709</v>
+        <f>IFERROR(VLOOKUP(C159,Sheet2!$A$1:$Y$19,19,0),0)</f>
+        <v>6.163632064317806</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8303,7 +6904,7 @@
         <v>2025</v>
       </c>
       <c r="J160" s="11">
-        <f>IFERROR(VLOOKUP(C160,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C160,Sheet2!$A$1:$Y$19,19,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8337,7 +6938,7 @@
         <v>2025</v>
       </c>
       <c r="J161" s="11">
-        <f>IFERROR(VLOOKUP(C161,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C161,Sheet2!$A$1:$Y$19,19,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8371,8 +6972,8 @@
         <v>2025</v>
       </c>
       <c r="J162" s="11">
-        <f>IFERROR(VLOOKUP(C162,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>17.857807308970099</v>
+        <f>IFERROR(VLOOKUP(C162,Sheet2!$A$1:$Y$19,22,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8405,8 +7006,8 @@
         <v>2025</v>
       </c>
       <c r="J163" s="11">
-        <f>IFERROR(VLOOKUP(C163,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>25.397995705082323</v>
+        <f>IFERROR(VLOOKUP(C163,Sheet2!$A$1:$Y$19,22,0),0)</f>
+        <v>32.184143222506393</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8439,8 +7040,8 @@
         <v>2025</v>
       </c>
       <c r="J164" s="11">
-        <f>IFERROR(VLOOKUP(C164,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>6.4586614173228352</v>
+        <f>IFERROR(VLOOKUP(C164,Sheet2!$A$1:$Y$19,22,0),0)</f>
+        <v>24.38513931888545</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8473,8 +7074,8 @@
         <v>2025</v>
       </c>
       <c r="J165" s="11">
-        <f>IFERROR(VLOOKUP(C165,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>27.32341110217217</v>
+        <f>IFERROR(VLOOKUP(C165,Sheet2!$A$1:$Y$19,22,0),0)</f>
+        <v>22.73922902494331</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8507,8 +7108,8 @@
         <v>2025</v>
       </c>
       <c r="J166" s="11">
-        <f>IFERROR(VLOOKUP(C166,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>16.719829258828096</v>
+        <f>IFERROR(VLOOKUP(C166,Sheet2!$A$1:$Y$19,22,0),0)</f>
+        <v>17.444444444444446</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8541,6 +7142,7 @@
         <v>2025</v>
       </c>
       <c r="J167" s="11">
+        <f>IFERROR(VLOOKUP(C167,Sheet2!$A$1:$Y$19,22,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8574,8 +7176,8 @@
         <v>2025</v>
       </c>
       <c r="J168" s="11">
-        <f>IFERROR(VLOOKUP(C168,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>12.497641509433961</v>
+        <f>IFERROR(VLOOKUP(C168,Sheet2!$A$1:$Y$19,22,0),0)</f>
+        <v>27.811808118081181</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8608,8 +7210,8 @@
         <v>2025</v>
       </c>
       <c r="J169" s="11">
-        <f>IFERROR(VLOOKUP(C169,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>4.787167120989726</v>
+        <f>IFERROR(VLOOKUP(C169,Sheet2!$A$1:$Y$19,22,0),0)</f>
+        <v>4.825992150021805</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8642,8 +7244,8 @@
         <v>2025</v>
       </c>
       <c r="J170" s="11">
-        <f>IFERROR(VLOOKUP(C170,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>8.9100000000000019</v>
+        <f>IFERROR(VLOOKUP(C170,Sheet2!$A$1:$Y$19,22,0),0)</f>
+        <v>6.756461675579323</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8676,8 +7278,8 @@
         <v>2025</v>
       </c>
       <c r="J171" s="11">
-        <f>IFERROR(VLOOKUP(C171,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>6.5954462289083136</v>
+        <f>IFERROR(VLOOKUP(C171,Sheet2!$A$1:$Y$19,22,0),0)</f>
+        <v>8.0795491143317228</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8710,7 +7312,7 @@
         <v>2025</v>
       </c>
       <c r="J172" s="11">
-        <f>IFERROR(VLOOKUP(C172,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C172,Sheet2!$A$1:$Y$19,22,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8744,8 +7346,8 @@
         <v>2025</v>
       </c>
       <c r="J173" s="11">
-        <f>IFERROR(VLOOKUP(C173,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>24.492204899777288</v>
+        <f>IFERROR(VLOOKUP(C173,Sheet2!$A$1:$Y$19,22,0),0)</f>
+        <v>26.388888888888886</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8778,8 +7380,8 @@
         <v>2025</v>
       </c>
       <c r="J174" s="11">
-        <f>IFERROR(VLOOKUP(C174,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>22.734932349323493</v>
+        <f>IFERROR(VLOOKUP(C174,Sheet2!$A$1:$Y$19,22,0),0)</f>
+        <v>31.08541666666666</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8812,7 +7414,7 @@
         <v>2025</v>
       </c>
       <c r="J175" s="11">
-        <f>IFERROR(VLOOKUP(C175,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C175,Sheet2!$A$1:$Y$19,22,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8846,7 +7448,7 @@
         <v>2025</v>
       </c>
       <c r="J176" s="11">
-        <f>IFERROR(VLOOKUP(C176,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C176,Sheet2!$A$1:$Y$19,22,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8880,7 +7482,7 @@
         <v>2025</v>
       </c>
       <c r="J177" s="11">
-        <f>IFERROR(VLOOKUP(C177,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C177,Sheet2!$A$1:$Y$19,22,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8914,7 +7516,7 @@
         <v>2025</v>
       </c>
       <c r="J178" s="11">
-        <f>IFERROR(VLOOKUP(C178,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C178,Sheet2!$A$1:$Y$19,22,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8948,7 +7550,7 @@
         <v>2025</v>
       </c>
       <c r="J179" s="11">
-        <f>IFERROR(VLOOKUP(C179,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C179,Sheet2!$A$1:$Y$19,22,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8982,7 +7584,7 @@
         <v>2025</v>
       </c>
       <c r="J180" s="11">
-        <f>IFERROR(VLOOKUP(C180,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C180,Sheet2!$A$1:$Y$19,22,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9016,8 +7618,8 @@
         <v>2025</v>
       </c>
       <c r="J181" s="11">
-        <f>IFERROR(VLOOKUP(C181,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>32.78947368421052</v>
+        <f>IFERROR(VLOOKUP(C181,Sheet2!$A$1:$Y$19,22,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -9050,7 +7652,7 @@
         <v>2025</v>
       </c>
       <c r="J182" s="11">
-        <f>IFERROR(VLOOKUP(C182,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C182,Sheet2!$A$1:$Y$19,22,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9084,8 +7686,8 @@
         <v>2025</v>
       </c>
       <c r="J183" s="11">
-        <f>IFERROR(VLOOKUP(C183,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>1.4289283037721709</v>
+        <f>IFERROR(VLOOKUP(C183,Sheet2!$A$1:$Y$19,22,0),0)</f>
+        <v>6.3551740812379114</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9118,7 +7720,7 @@
         <v>2025</v>
       </c>
       <c r="J184" s="11">
-        <f>IFERROR(VLOOKUP(C184,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C184,Sheet2!$A$1:$Y$19,22,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9152,7 +7754,7 @@
         <v>2025</v>
       </c>
       <c r="J185" s="11">
-        <f>IFERROR(VLOOKUP(C185,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C185,Sheet2!$A$1:$Y$19,22,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9186,8 +7788,8 @@
         <v>2025</v>
       </c>
       <c r="J186" s="11">
-        <f>IFERROR(VLOOKUP(C186,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>17.857807308970099</v>
+        <f>IFERROR(VLOOKUP(C186,Sheet2!$A$1:$Y$19,25,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9220,8 +7822,8 @@
         <v>2025</v>
       </c>
       <c r="J187" s="11">
-        <f>IFERROR(VLOOKUP(C187,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>25.397995705082323</v>
+        <f>IFERROR(VLOOKUP(C187,Sheet2!$A$1:$Y$19,25,0),0)</f>
+        <v>29.146537842190018</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9254,8 +7856,8 @@
         <v>2025</v>
       </c>
       <c r="J188" s="11">
-        <f>IFERROR(VLOOKUP(C188,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>6.4586614173228352</v>
+        <f>IFERROR(VLOOKUP(C188,Sheet2!$A$1:$Y$19,25,0),0)</f>
+        <v>22.000845785170569</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9288,8 +7890,8 @@
         <v>2025</v>
       </c>
       <c r="J189" s="11">
-        <f>IFERROR(VLOOKUP(C189,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>27.32341110217217</v>
+        <f>IFERROR(VLOOKUP(C189,Sheet2!$A$1:$Y$19,25,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9322,8 +7924,8 @@
         <v>2025</v>
       </c>
       <c r="J190" s="11">
-        <f>IFERROR(VLOOKUP(C190,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>16.719829258828096</v>
+        <f>IFERROR(VLOOKUP(C190,Sheet2!$A$1:$Y$19,25,0),0)</f>
+        <v>22.586034912718205</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9356,6 +7958,7 @@
         <v>2025</v>
       </c>
       <c r="J191" s="11">
+        <f>IFERROR(VLOOKUP(C191,Sheet2!$A$1:$Y$19,25,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9389,8 +7992,8 @@
         <v>2025</v>
       </c>
       <c r="J192" s="11">
-        <f>IFERROR(VLOOKUP(C192,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>12.497641509433961</v>
+        <f>IFERROR(VLOOKUP(C192,Sheet2!$A$1:$Y$19,25,0),0)</f>
+        <v>5.4306436990027196</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9423,8 +8026,8 @@
         <v>2025</v>
       </c>
       <c r="J193" s="11">
-        <f>IFERROR(VLOOKUP(C193,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>4.787167120989726</v>
+        <f>IFERROR(VLOOKUP(C193,Sheet2!$A$1:$Y$19,25,0),0)</f>
+        <v>5.5671920919048894</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9457,8 +8060,8 @@
         <v>2025</v>
       </c>
       <c r="J194" s="11">
-        <f>IFERROR(VLOOKUP(C194,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>8.9100000000000019</v>
+        <f>IFERROR(VLOOKUP(C194,Sheet2!$A$1:$Y$19,25,0),0)</f>
+        <v>7.2262525504420765</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9491,8 +8094,8 @@
         <v>2025</v>
       </c>
       <c r="J195" s="11">
-        <f>IFERROR(VLOOKUP(C195,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>6.5954462289083136</v>
+        <f>IFERROR(VLOOKUP(C195,Sheet2!$A$1:$Y$19,25,0),0)</f>
+        <v>5.0262316058861165</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9525,7 +8128,7 @@
         <v>2025</v>
       </c>
       <c r="J196" s="11">
-        <f>IFERROR(VLOOKUP(C196,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C196,Sheet2!$A$1:$Y$19,25,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9559,8 +8162,8 @@
         <v>2025</v>
       </c>
       <c r="J197" s="11">
-        <f>IFERROR(VLOOKUP(C197,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>24.492204899777288</v>
+        <f>IFERROR(VLOOKUP(C197,Sheet2!$A$1:$Y$19,25,0),0)</f>
+        <v>25.521219135802468</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9593,8 +8196,8 @@
         <v>2025</v>
       </c>
       <c r="J198" s="11">
-        <f>IFERROR(VLOOKUP(C198,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>22.734932349323493</v>
+        <f>IFERROR(VLOOKUP(C198,Sheet2!$A$1:$Y$19,25,0),0)</f>
+        <v>32.104372355430179</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9627,7 +8230,7 @@
         <v>2025</v>
       </c>
       <c r="J199" s="11">
-        <f>IFERROR(VLOOKUP(C199,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C199,Sheet2!$A$1:$Y$19,25,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9661,7 +8264,7 @@
         <v>2025</v>
       </c>
       <c r="J200" s="11">
-        <f>IFERROR(VLOOKUP(C200,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C200,Sheet2!$A$1:$Y$19,25,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9695,7 +8298,7 @@
         <v>2025</v>
       </c>
       <c r="J201" s="11">
-        <f>IFERROR(VLOOKUP(C201,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C201,Sheet2!$A$1:$Y$19,25,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9729,7 +8332,7 @@
         <v>2025</v>
       </c>
       <c r="J202" s="11">
-        <f>IFERROR(VLOOKUP(C202,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C202,Sheet2!$A$1:$Y$19,25,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9763,7 +8366,7 @@
         <v>2025</v>
       </c>
       <c r="J203" s="11">
-        <f>IFERROR(VLOOKUP(C203,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C203,Sheet2!$A$1:$Y$19,25,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9797,7 +8400,7 @@
         <v>2025</v>
       </c>
       <c r="J204" s="11">
-        <f>IFERROR(VLOOKUP(C204,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C204,Sheet2!$A$1:$Y$19,25,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9831,8 +8434,8 @@
         <v>2025</v>
       </c>
       <c r="J205" s="11">
-        <f>IFERROR(VLOOKUP(C205,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>32.78947368421052</v>
+        <f>IFERROR(VLOOKUP(C205,Sheet2!$A$1:$Y$19,25,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -9865,7 +8468,7 @@
         <v>2025</v>
       </c>
       <c r="J206" s="11">
-        <f>IFERROR(VLOOKUP(C206,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C206,Sheet2!$A$1:$Y$19,25,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9899,8 +8502,8 @@
         <v>2025</v>
       </c>
       <c r="J207" s="11">
-        <f>IFERROR(VLOOKUP(C207,[1]LT!$L$2:$AJ$19,4,0),0)</f>
-        <v>1.4289283037721709</v>
+        <f>IFERROR(VLOOKUP(C207,Sheet2!$A$1:$Y$19,25,0),0)</f>
+        <v>4.2624262045324697</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9933,7 +8536,7 @@
         <v>2025</v>
       </c>
       <c r="J208" s="11">
-        <f>IFERROR(VLOOKUP(C208,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C208,Sheet2!$A$1:$Y$19,25,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9967,7 +8570,7 @@
         <v>2025</v>
       </c>
       <c r="J209" s="11">
-        <f>IFERROR(VLOOKUP(C209,[1]LT!$L$2:$AJ$19,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(C209,Sheet2!$A$1:$Y$19,25,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9975,4 +8578,1416 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81C0065-91E4-4499-97BF-719C464BC6F2}">
+  <dimension ref="A1:Y19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>57.2</v>
+      </c>
+      <c r="C2">
+        <v>4003</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1.4289283037721709</v>
+      </c>
+      <c r="E2">
+        <v>114.08</v>
+      </c>
+      <c r="F2">
+        <v>3959</v>
+      </c>
+      <c r="G2" s="15">
+        <v>2.8815357413488254</v>
+      </c>
+      <c r="H2">
+        <v>222.15</v>
+      </c>
+      <c r="I2">
+        <v>2772</v>
+      </c>
+      <c r="J2" s="15">
+        <v>8.0140692640692635</v>
+      </c>
+      <c r="K2">
+        <v>222.15</v>
+      </c>
+      <c r="L2">
+        <v>4110</v>
+      </c>
+      <c r="M2" s="15">
+        <v>5.4051094890510951</v>
+      </c>
+      <c r="N2">
+        <v>165.78000000000003</v>
+      </c>
+      <c r="O2">
+        <v>3353</v>
+      </c>
+      <c r="P2" s="15">
+        <v>4.9442290486131828</v>
+      </c>
+      <c r="Q2">
+        <v>260.66000000000003</v>
+      </c>
+      <c r="R2">
+        <v>4229</v>
+      </c>
+      <c r="S2" s="15">
+        <v>6.163632064317806</v>
+      </c>
+      <c r="T2">
+        <v>262.85000000000002</v>
+      </c>
+      <c r="U2">
+        <v>4136</v>
+      </c>
+      <c r="V2" s="15">
+        <v>6.3551740812379114</v>
+      </c>
+      <c r="W2">
+        <v>223.82</v>
+      </c>
+      <c r="X2">
+        <v>5251</v>
+      </c>
+      <c r="Y2" s="15">
+        <v>4.2624262045324697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>268.76</v>
+      </c>
+      <c r="C3">
+        <v>1505</v>
+      </c>
+      <c r="D3" s="15">
+        <v>17.857807308970099</v>
+      </c>
+      <c r="E3">
+        <v>296.76</v>
+      </c>
+      <c r="F3">
+        <v>796</v>
+      </c>
+      <c r="G3" s="15">
+        <v>37.281407035175882</v>
+      </c>
+      <c r="H3">
+        <v>797.08000000000015</v>
+      </c>
+      <c r="I3">
+        <v>294</v>
+      </c>
+      <c r="J3" s="15">
+        <v>271.11564625850349</v>
+      </c>
+      <c r="K3">
+        <v>797.08000000000015</v>
+      </c>
+      <c r="L3">
+        <v>1525</v>
+      </c>
+      <c r="M3" s="15">
+        <v>52.267540983606565</v>
+      </c>
+      <c r="N3">
+        <v>282.48</v>
+      </c>
+      <c r="O3">
+        <v>23</v>
+      </c>
+      <c r="P3" s="15">
+        <v>1228.1739130434783</v>
+      </c>
+      <c r="Q3">
+        <v>1094.29</v>
+      </c>
+      <c r="R3">
+        <v>1593</v>
+      </c>
+      <c r="S3" s="15">
+        <v>68.693659761456374</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>554</v>
+      </c>
+      <c r="V3" s="15">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>24</v>
+      </c>
+      <c r="Y3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>430.87</v>
+      </c>
+      <c r="C4">
+        <v>2577</v>
+      </c>
+      <c r="D4" s="15">
+        <v>16.719829258828096</v>
+      </c>
+      <c r="E4">
+        <v>452.09999999999997</v>
+      </c>
+      <c r="F4">
+        <v>2609</v>
+      </c>
+      <c r="G4" s="15">
+        <v>17.328478344193176</v>
+      </c>
+      <c r="H4">
+        <v>437.64</v>
+      </c>
+      <c r="I4">
+        <v>2517</v>
+      </c>
+      <c r="J4" s="15">
+        <v>17.387365911799758</v>
+      </c>
+      <c r="K4">
+        <v>437.64</v>
+      </c>
+      <c r="L4">
+        <v>2122</v>
+      </c>
+      <c r="M4" s="15">
+        <v>20.623939679547597</v>
+      </c>
+      <c r="N4">
+        <v>442.62</v>
+      </c>
+      <c r="O4">
+        <v>2217</v>
+      </c>
+      <c r="P4" s="15">
+        <v>19.964817320703652</v>
+      </c>
+      <c r="Q4">
+        <v>541.36999999999989</v>
+      </c>
+      <c r="R4">
+        <v>2683</v>
+      </c>
+      <c r="S4" s="15">
+        <v>20.177786060380168</v>
+      </c>
+      <c r="T4">
+        <v>604.45000000000005</v>
+      </c>
+      <c r="U4">
+        <v>3465</v>
+      </c>
+      <c r="V4" s="15">
+        <v>17.444444444444446</v>
+      </c>
+      <c r="W4">
+        <v>452.85</v>
+      </c>
+      <c r="X4">
+        <v>2005</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>22.586034912718205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>87.22</v>
+      </c>
+      <c r="C5">
+        <v>266</v>
+      </c>
+      <c r="D5" s="15">
+        <v>32.78947368421052</v>
+      </c>
+      <c r="E5">
+        <v>98.47</v>
+      </c>
+      <c r="F5">
+        <v>44</v>
+      </c>
+      <c r="G5" s="15">
+        <v>223.79545454545453</v>
+      </c>
+      <c r="I5">
+        <v>713</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>62.33</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>71.28</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="15">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>784.23</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="15">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>421.45</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>105.97999999999999</v>
+      </c>
+      <c r="C6">
+        <v>848</v>
+      </c>
+      <c r="D6" s="15">
+        <v>12.497641509433961</v>
+      </c>
+      <c r="E6">
+        <v>98.59</v>
+      </c>
+      <c r="F6">
+        <v>979</v>
+      </c>
+      <c r="G6" s="15">
+        <v>10.070480081716038</v>
+      </c>
+      <c r="H6">
+        <v>164.32</v>
+      </c>
+      <c r="I6">
+        <v>1152</v>
+      </c>
+      <c r="J6" s="15">
+        <v>14.263888888888888</v>
+      </c>
+      <c r="K6">
+        <v>164.32</v>
+      </c>
+      <c r="L6">
+        <v>1718</v>
+      </c>
+      <c r="M6" s="15">
+        <v>9.5646100116414434</v>
+      </c>
+      <c r="N6">
+        <v>111.42</v>
+      </c>
+      <c r="O6">
+        <v>1561</v>
+      </c>
+      <c r="P6" s="15">
+        <v>7.1377322229340168</v>
+      </c>
+      <c r="Q6">
+        <v>163.87</v>
+      </c>
+      <c r="R6">
+        <v>1504</v>
+      </c>
+      <c r="S6" s="15">
+        <v>10.89561170212766</v>
+      </c>
+      <c r="T6">
+        <v>150.74</v>
+      </c>
+      <c r="U6">
+        <v>542</v>
+      </c>
+      <c r="V6" s="15">
+        <v>27.811808118081181</v>
+      </c>
+      <c r="W6">
+        <v>59.9</v>
+      </c>
+      <c r="X6">
+        <v>1103</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>5.4306436990027196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>262.48</v>
+      </c>
+      <c r="C7">
+        <v>4064</v>
+      </c>
+      <c r="D7" s="15">
+        <v>6.4586614173228352</v>
+      </c>
+      <c r="E7">
+        <v>48.19</v>
+      </c>
+      <c r="F7">
+        <v>1328</v>
+      </c>
+      <c r="G7" s="15">
+        <v>3.6287650602409633</v>
+      </c>
+      <c r="H7">
+        <v>36.11</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>36.11</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>564.02</v>
+      </c>
+      <c r="O7">
+        <v>1962</v>
+      </c>
+      <c r="P7" s="15">
+        <v>28.747196738022424</v>
+      </c>
+      <c r="Q7">
+        <v>395.50999999999993</v>
+      </c>
+      <c r="R7">
+        <v>1794</v>
+      </c>
+      <c r="S7" s="15">
+        <v>22.046265328874021</v>
+      </c>
+      <c r="T7">
+        <v>393.82</v>
+      </c>
+      <c r="U7">
+        <v>1615</v>
+      </c>
+      <c r="V7" s="15">
+        <v>24.38513931888545</v>
+      </c>
+      <c r="W7">
+        <v>780.37000000000012</v>
+      </c>
+      <c r="X7">
+        <v>3547</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>22.000845785170569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>709.62</v>
+      </c>
+      <c r="C8">
+        <v>2794</v>
+      </c>
+      <c r="D8" s="15">
+        <v>25.397995705082323</v>
+      </c>
+      <c r="E8">
+        <v>546.21</v>
+      </c>
+      <c r="F8">
+        <v>2846</v>
+      </c>
+      <c r="G8" s="15">
+        <v>19.192199578355588</v>
+      </c>
+      <c r="H8">
+        <v>805.38000000000011</v>
+      </c>
+      <c r="I8">
+        <v>2334</v>
+      </c>
+      <c r="J8" s="15">
+        <v>34.506426735218518</v>
+      </c>
+      <c r="K8">
+        <v>805.38000000000011</v>
+      </c>
+      <c r="L8">
+        <v>3152</v>
+      </c>
+      <c r="M8" s="15">
+        <v>25.551395939086298</v>
+      </c>
+      <c r="N8">
+        <v>270.54999999999995</v>
+      </c>
+      <c r="O8">
+        <v>1019</v>
+      </c>
+      <c r="P8" s="15">
+        <v>26.550539744847885</v>
+      </c>
+      <c r="Q8">
+        <v>560.47</v>
+      </c>
+      <c r="R8">
+        <v>1937</v>
+      </c>
+      <c r="S8" s="15">
+        <v>28.934950955085188</v>
+      </c>
+      <c r="T8">
+        <v>251.68</v>
+      </c>
+      <c r="U8">
+        <v>782</v>
+      </c>
+      <c r="V8" s="15">
+        <v>32.184143222506393</v>
+      </c>
+      <c r="W8">
+        <v>181</v>
+      </c>
+      <c r="X8">
+        <v>621</v>
+      </c>
+      <c r="Y8" s="15">
+        <v>29.146537842190018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>679.2600000000001</v>
+      </c>
+      <c r="C9">
+        <v>2486</v>
+      </c>
+      <c r="D9" s="15">
+        <v>27.32341110217217</v>
+      </c>
+      <c r="E9">
+        <v>754.66</v>
+      </c>
+      <c r="F9">
+        <v>3159</v>
+      </c>
+      <c r="G9" s="15">
+        <v>23.889205444761</v>
+      </c>
+      <c r="H9">
+        <v>916.93000000000006</v>
+      </c>
+      <c r="I9">
+        <v>3611</v>
+      </c>
+      <c r="J9" s="15">
+        <v>25.392689005815566</v>
+      </c>
+      <c r="K9">
+        <v>916.93000000000006</v>
+      </c>
+      <c r="L9">
+        <v>4057</v>
+      </c>
+      <c r="M9" s="15">
+        <v>22.601183140251418</v>
+      </c>
+      <c r="N9">
+        <v>409.8</v>
+      </c>
+      <c r="O9">
+        <v>1821</v>
+      </c>
+      <c r="P9" s="15">
+        <v>22.504118616144975</v>
+      </c>
+      <c r="Q9">
+        <v>823.15999999999985</v>
+      </c>
+      <c r="R9">
+        <v>3648</v>
+      </c>
+      <c r="S9" s="15">
+        <v>22.564692982456137</v>
+      </c>
+      <c r="T9">
+        <v>100.28</v>
+      </c>
+      <c r="U9">
+        <v>441</v>
+      </c>
+      <c r="V9" s="15">
+        <v>22.73922902494331</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>9</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>67.430000000000007</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>552.68999999999994</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>552.68999999999994</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>120.97</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="15">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>98.76</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="15">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>242.38000000000002</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11">
+        <v>960.8599999999999</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>644.04</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>697.1400000000001</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>697.1400000000001</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>249.97</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>260.48</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="15">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>727.51</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="15">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>623.41</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>213.86999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>250.56</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>250.56</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>176.11999999999998</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>226.49</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="15">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>196.61</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="15">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>239.92999999999998</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>228.3</v>
+      </c>
+      <c r="C13">
+        <v>4769</v>
+      </c>
+      <c r="D13" s="15">
+        <v>4.787167120989726</v>
+      </c>
+      <c r="E13">
+        <v>182.55</v>
+      </c>
+      <c r="F13">
+        <v>4060</v>
+      </c>
+      <c r="G13" s="15">
+        <v>4.4963054187192117</v>
+      </c>
+      <c r="H13">
+        <v>234.12</v>
+      </c>
+      <c r="I13">
+        <v>4116</v>
+      </c>
+      <c r="J13" s="15">
+        <v>5.6880466472303208</v>
+      </c>
+      <c r="K13">
+        <v>234.12</v>
+      </c>
+      <c r="L13">
+        <v>3864</v>
+      </c>
+      <c r="M13" s="15">
+        <v>6.0590062111801242</v>
+      </c>
+      <c r="N13">
+        <v>229.68</v>
+      </c>
+      <c r="O13">
+        <v>3412</v>
+      </c>
+      <c r="P13" s="15">
+        <v>6.7315357561547478</v>
+      </c>
+      <c r="Q13">
+        <v>135.79</v>
+      </c>
+      <c r="R13">
+        <v>2400</v>
+      </c>
+      <c r="S13" s="15">
+        <v>5.6579166666666669</v>
+      </c>
+      <c r="T13">
+        <v>110.66</v>
+      </c>
+      <c r="U13">
+        <v>2293</v>
+      </c>
+      <c r="V13" s="15">
+        <v>4.825992150021805</v>
+      </c>
+      <c r="W13">
+        <v>208.38</v>
+      </c>
+      <c r="X13">
+        <v>3743</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>5.5671920919048894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>240.57000000000002</v>
+      </c>
+      <c r="C14">
+        <v>2700</v>
+      </c>
+      <c r="D14" s="15">
+        <v>8.9100000000000019</v>
+      </c>
+      <c r="E14">
+        <v>299.88000000000005</v>
+      </c>
+      <c r="F14">
+        <v>3887</v>
+      </c>
+      <c r="G14" s="15">
+        <v>7.7149472600977624</v>
+      </c>
+      <c r="H14">
+        <v>284.37000000000006</v>
+      </c>
+      <c r="I14">
+        <v>4915</v>
+      </c>
+      <c r="J14" s="15">
+        <v>5.7857578840284853</v>
+      </c>
+      <c r="K14">
+        <v>284.37000000000006</v>
+      </c>
+      <c r="L14">
+        <v>4038</v>
+      </c>
+      <c r="M14" s="15">
+        <v>7.0423476968796441</v>
+      </c>
+      <c r="N14">
+        <v>209.32</v>
+      </c>
+      <c r="O14">
+        <v>3540</v>
+      </c>
+      <c r="P14" s="15">
+        <v>5.9129943502824851</v>
+      </c>
+      <c r="Q14">
+        <v>144.16</v>
+      </c>
+      <c r="R14">
+        <v>3594</v>
+      </c>
+      <c r="S14" s="15">
+        <v>4.011129660545353</v>
+      </c>
+      <c r="T14">
+        <v>303.23</v>
+      </c>
+      <c r="U14">
+        <v>4488</v>
+      </c>
+      <c r="V14" s="15">
+        <v>6.756461675579323</v>
+      </c>
+      <c r="W14">
+        <v>318.75</v>
+      </c>
+      <c r="X14">
+        <v>4411</v>
+      </c>
+      <c r="Y14" s="15">
+        <v>7.2262525504420765</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>222.84000000000003</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>182.09</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>182.09</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>225.17</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>268.43</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15" s="15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>236.75000000000003</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15" s="15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>217.39999999999998</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>324.42999999999995</v>
+      </c>
+      <c r="C16">
+        <v>4919</v>
+      </c>
+      <c r="D16" s="15">
+        <v>6.5954462289083136</v>
+      </c>
+      <c r="E16">
+        <v>259.83999999999997</v>
+      </c>
+      <c r="F16">
+        <v>4443</v>
+      </c>
+      <c r="G16" s="15">
+        <v>5.84830069772676</v>
+      </c>
+      <c r="H16">
+        <v>301.70999999999998</v>
+      </c>
+      <c r="I16">
+        <v>4313</v>
+      </c>
+      <c r="J16" s="15">
+        <v>6.9953628564804085</v>
+      </c>
+      <c r="K16">
+        <v>301.70999999999998</v>
+      </c>
+      <c r="L16">
+        <v>4673</v>
+      </c>
+      <c r="M16" s="15">
+        <v>6.4564519580569222</v>
+      </c>
+      <c r="N16">
+        <v>327.64</v>
+      </c>
+      <c r="O16">
+        <v>3846</v>
+      </c>
+      <c r="P16" s="15">
+        <v>8.5189807592303683</v>
+      </c>
+      <c r="Q16">
+        <v>350.07000000000005</v>
+      </c>
+      <c r="R16">
+        <v>4911</v>
+      </c>
+      <c r="S16" s="15">
+        <v>7.1282834453268187</v>
+      </c>
+      <c r="T16">
+        <v>250.87</v>
+      </c>
+      <c r="U16">
+        <v>3105</v>
+      </c>
+      <c r="V16" s="15">
+        <v>8.0795491143317228</v>
+      </c>
+      <c r="W16">
+        <v>235.68</v>
+      </c>
+      <c r="X16">
+        <v>4689</v>
+      </c>
+      <c r="Y16" s="15">
+        <v>5.0262316058861165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>439.88000000000005</v>
+      </c>
+      <c r="C17">
+        <v>1796</v>
+      </c>
+      <c r="D17" s="15">
+        <v>24.492204899777288</v>
+      </c>
+      <c r="E17">
+        <v>644.28</v>
+      </c>
+      <c r="F17">
+        <v>2261</v>
+      </c>
+      <c r="G17" s="15">
+        <v>28.495356037151705</v>
+      </c>
+      <c r="H17">
+        <v>640.36</v>
+      </c>
+      <c r="I17">
+        <v>2477</v>
+      </c>
+      <c r="J17" s="15">
+        <v>25.852240613645538</v>
+      </c>
+      <c r="K17">
+        <v>640.36</v>
+      </c>
+      <c r="L17">
+        <v>2742</v>
+      </c>
+      <c r="M17" s="15">
+        <v>23.353756382202771</v>
+      </c>
+      <c r="N17">
+        <v>665.95999999999992</v>
+      </c>
+      <c r="O17">
+        <v>2218</v>
+      </c>
+      <c r="P17" s="15">
+        <v>30.025247971145173</v>
+      </c>
+      <c r="Q17">
+        <v>520.67000000000007</v>
+      </c>
+      <c r="R17">
+        <v>2201</v>
+      </c>
+      <c r="S17" s="15">
+        <v>23.656065424806911</v>
+      </c>
+      <c r="T17">
+        <v>755.24999999999989</v>
+      </c>
+      <c r="U17">
+        <v>2862</v>
+      </c>
+      <c r="V17" s="15">
+        <v>26.388888888888886</v>
+      </c>
+      <c r="W17">
+        <v>661.51</v>
+      </c>
+      <c r="X17">
+        <v>2592</v>
+      </c>
+      <c r="Y17" s="15">
+        <v>25.521219135802468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>369.67</v>
+      </c>
+      <c r="C18">
+        <v>1626</v>
+      </c>
+      <c r="D18" s="15">
+        <v>22.734932349323493</v>
+      </c>
+      <c r="E18">
+        <v>485.26</v>
+      </c>
+      <c r="F18">
+        <v>1272</v>
+      </c>
+      <c r="G18" s="15">
+        <v>38.149371069182394</v>
+      </c>
+      <c r="H18">
+        <v>775.89</v>
+      </c>
+      <c r="I18">
+        <v>1669</v>
+      </c>
+      <c r="J18" s="15">
+        <v>46.488316357100054</v>
+      </c>
+      <c r="K18">
+        <v>775.89</v>
+      </c>
+      <c r="L18">
+        <v>2610</v>
+      </c>
+      <c r="M18" s="15">
+        <v>29.72758620689655</v>
+      </c>
+      <c r="N18">
+        <v>725.10000000000014</v>
+      </c>
+      <c r="O18">
+        <v>2487</v>
+      </c>
+      <c r="P18" s="15">
+        <v>29.155609167671898</v>
+      </c>
+      <c r="Q18">
+        <v>767.5</v>
+      </c>
+      <c r="R18">
+        <v>2583</v>
+      </c>
+      <c r="S18" s="15">
+        <v>29.713511420828493</v>
+      </c>
+      <c r="T18">
+        <v>447.62999999999994</v>
+      </c>
+      <c r="U18">
+        <v>1440</v>
+      </c>
+      <c r="V18" s="15">
+        <v>31.08541666666666</v>
+      </c>
+      <c r="W18">
+        <v>682.8599999999999</v>
+      </c>
+      <c r="X18">
+        <v>2127</v>
+      </c>
+      <c r="Y18" s="15">
+        <v>32.104372355430179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>429.3</v>
+      </c>
+      <c r="C19">
+        <v>41</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>471.95000000000005</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>286.27999999999997</v>
+      </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>286.27999999999997</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19" s="15">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19" s="15">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>